--- a/doc/documents/vulnerability_analisys.xlsx
+++ b/doc/documents/vulnerability_analisys.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\pasq\security-graph-visualiser\doc\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E4001A8-2D01-4328-867D-63055D256F91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0342F3-BE1E-4A48-AA32-1448213E3B8F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16860" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
     <sheet name="OWASP" sheetId="2" r:id="rId2"/>
-    <sheet name="Wapiti" sheetId="3" r:id="rId3"/>
-    <sheet name="Acunetix" sheetId="4" r:id="rId4"/>
+    <sheet name="Acunetix" sheetId="4" r:id="rId3"/>
+    <sheet name="Wapiti" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OWASP!$A$2:$H$34</definedName>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="186">
   <si>
     <t>Edge</t>
   </si>
@@ -548,12 +548,6 @@
   </si>
   <si>
     <t>Easy</t>
-  </si>
-  <si>
-    <t>Easy (manual)</t>
-  </si>
-  <si>
-    <t>Easy (scanner)</t>
   </si>
   <si>
     <t>Wapiti</t>
@@ -1072,6 +1066,9 @@
       </rPr>
       <t>, XSS</t>
     </r>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1174,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1225,9 +1222,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1241,6 +1235,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1271,6 +1268,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2338,7 +2347,7 @@
   <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4009,980 +4018,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T52"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="3.42578125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="11.5703125"/>
-    <col min="17" max="17" width="6.5703125" customWidth="1"/>
-    <col min="18" max="1025" width="11.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="E2" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="25.5">
-      <c r="A4" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="K4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4" s="22">
-        <f>IF(AND(ISNUMBER(N4),N4&lt;&gt;0),(L4-M4*0.25)/N4*100,"NA")</f>
-        <v>100</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="25.5">
-      <c r="A5" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="K5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="22">
-        <f t="shared" ref="O5:O26" si="0">IF(AND(ISNUMBER(N5),N5&lt;&gt;0),(L5-M5*0.25)/N5*100,"NA")</f>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="K6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="38.25">
-      <c r="A7" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="K7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="22">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="25.5">
-      <c r="A8" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="K8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" s="22">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="K9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" s="22">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="K10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" s="22">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="K11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="K12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>4</v>
-      </c>
-      <c r="O12" s="22">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="P12">
-        <v>2</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="K13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>4</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13" s="22">
-        <f t="shared" si="0"/>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
-      </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="K14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="K15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="14"/>
-      <c r="B16" s="20"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="23"/>
-      <c r="K16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>6</v>
-      </c>
-      <c r="O16" s="22">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="P16">
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="11:20">
-      <c r="K17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="11:20" ht="25.5">
-      <c r="K18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="O18" s="22">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="11:20">
-      <c r="K19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="17">
-        <v>0</v>
-      </c>
-      <c r="M19" s="17">
-        <v>0</v>
-      </c>
-      <c r="N19" s="17">
-        <v>0</v>
-      </c>
-      <c r="O19" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="20" spans="11:20">
-      <c r="K20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="17">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" s="17">
-        <v>4</v>
-      </c>
-      <c r="O20" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="11:20">
-      <c r="K21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="22" spans="11:20">
-      <c r="K22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22" s="22">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="11:20">
-      <c r="K23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="11:20">
-      <c r="K24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" t="s">
-        <v>176</v>
-      </c>
-      <c r="M24" t="s">
-        <v>176</v>
-      </c>
-      <c r="N24" t="s">
-        <v>176</v>
-      </c>
-      <c r="O24" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="25" spans="11:20">
-      <c r="K25" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25">
-        <v>2</v>
-      </c>
-      <c r="M25">
-        <v>2</v>
-      </c>
-      <c r="N25">
-        <v>2</v>
-      </c>
-      <c r="O25" s="22">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="11:20">
-      <c r="K26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="14"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="14"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="14"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
@@ -6029,4 +5064,1442 @@
     <ignoredError sqref="E11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:W52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="16" width="11.5703125"/>
+    <col min="17" max="17" width="6.5703125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125"/>
+    <col min="20" max="1026" width="11.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="E2" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="L2" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+    </row>
+    <row r="3" spans="1:23" ht="25.5">
+      <c r="A3" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="S3" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="U3" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="V3" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="W3" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="25.5">
+      <c r="A4" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="K4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" s="21">
+        <f>IF(AND(ISNUMBER(N4),N4&lt;&gt;0),(L4-M4*0.25)/N4*100,"NA")</f>
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="21">
+        <f>IF(AND(ISNUMBER(R4),R4&lt;&gt;0),(P4-Q4*0.25)/R4*100,"NA")</f>
+        <v>100</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4" s="21">
+        <f>IF(AND(ISNUMBER(V4),V4&lt;&gt;0),(T4-U4*0.25)/V4*100,"NA")</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="25.5">
+      <c r="A5" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="K5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="21">
+        <f t="shared" ref="O5:O26" si="0">IF(AND(ISNUMBER(N5),N5&lt;&gt;0),(L5-M5*0.25)/N5*100,"NA")</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" s="21">
+        <f t="shared" ref="S5:S26" si="1">IF(AND(ISNUMBER(R5),R5&lt;&gt;0),(P5-Q5*0.25)/R5*100,"NA")</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5" s="21">
+        <f t="shared" ref="W5:W26" si="2">IF(AND(ISNUMBER(V5),V5&lt;&gt;0),(T5-U5*0.25)/V5*100,"NA")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="K6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="38.25">
+      <c r="A7" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="K7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7" s="21">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="T7">
+        <v>0.5</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7" s="21">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="25.5">
+      <c r="A8" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="K8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="K9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" s="21">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="T9">
+        <v>0.5</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9" s="21">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="K10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" s="21">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>0.5</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10" s="21">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="K11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="K12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12" s="21">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="T12" s="10">
+        <f>1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="W12" s="21">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="K13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" s="21">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="K14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="25.5" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="K15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="14"/>
+      <c r="B16" s="19"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="22"/>
+      <c r="K16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+      <c r="O16" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="11:23">
+      <c r="K17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="37">
+        <v>0</v>
+      </c>
+      <c r="U17" s="37">
+        <v>0</v>
+      </c>
+      <c r="V17" s="37">
+        <v>1</v>
+      </c>
+      <c r="W17" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="11:23" ht="25.5">
+      <c r="K18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="P18" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="37">
+        <v>2</v>
+      </c>
+      <c r="R18" s="37">
+        <v>3</v>
+      </c>
+      <c r="S18" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="T18" s="37">
+        <v>2</v>
+      </c>
+      <c r="U18" s="37">
+        <v>2</v>
+      </c>
+      <c r="V18" s="37">
+        <v>3</v>
+      </c>
+      <c r="W18" s="21">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="11:23">
+      <c r="K19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="17">
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>0</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0</v>
+      </c>
+      <c r="O19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="P19" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="37">
+        <v>0</v>
+      </c>
+      <c r="R19" s="37">
+        <v>0</v>
+      </c>
+      <c r="S19" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+      <c r="T19" s="37">
+        <v>0</v>
+      </c>
+      <c r="U19" s="37">
+        <v>0</v>
+      </c>
+      <c r="V19" s="37">
+        <v>0</v>
+      </c>
+      <c r="W19" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="20" spans="11:23">
+      <c r="K20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="17">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="17">
+        <v>4</v>
+      </c>
+      <c r="O20" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="37">
+        <v>0</v>
+      </c>
+      <c r="R20" s="37">
+        <v>4</v>
+      </c>
+      <c r="S20" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="37">
+        <v>0</v>
+      </c>
+      <c r="U20" s="37">
+        <v>0</v>
+      </c>
+      <c r="V20" s="37">
+        <v>4</v>
+      </c>
+      <c r="W20" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="11:23">
+      <c r="K21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="P21" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="37">
+        <v>0</v>
+      </c>
+      <c r="R21" s="37">
+        <v>0</v>
+      </c>
+      <c r="S21" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+      <c r="T21" s="37">
+        <v>0</v>
+      </c>
+      <c r="U21" s="37">
+        <v>0</v>
+      </c>
+      <c r="V21" s="37">
+        <v>0</v>
+      </c>
+      <c r="W21" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="22" spans="11:23">
+      <c r="K22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" s="21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="P22" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="37">
+        <v>0</v>
+      </c>
+      <c r="R22" s="37">
+        <v>0</v>
+      </c>
+      <c r="S22" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="23" spans="11:23">
+      <c r="K23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="P23" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="37">
+        <v>0</v>
+      </c>
+      <c r="R23" s="37">
+        <v>0</v>
+      </c>
+      <c r="S23" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="24" spans="11:23">
+      <c r="K24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>174</v>
+      </c>
+      <c r="M24" t="s">
+        <v>174</v>
+      </c>
+      <c r="N24" t="s">
+        <v>174</v>
+      </c>
+      <c r="O24" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="S24" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+      <c r="W24" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="25" spans="11:23">
+      <c r="K25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="W25" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="26" spans="11:23">
+      <c r="K26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="14"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="14"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="14"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="E15:G15"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/documents/vulnerability_analisys.xlsx
+++ b/doc/documents/vulnerability_analisys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\pasq\security-graph-visualiser\doc\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35614BFB-B71A-4EF4-96DB-478559C88288}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4D6EAD-37F9-49C8-BA75-7613713D7571}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15165" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16185" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1868,6 +1868,28 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1897,28 +1919,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1981,25 +1981,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2030,6 +2011,25 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3095,17 +3095,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58D7BE7D-1C8C-40C5-9470-D286EE71E6AF}" name="Table1" displayName="Table1" ref="A2:E22" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58D7BE7D-1C8C-40C5-9470-D286EE71E6AF}" name="Table1" displayName="Table1" ref="A2:E22" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A2:E22" xr:uid="{43C3B140-222F-47F2-8676-716F60684D15}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E22">
     <sortCondition descending="1" ref="E2:E22"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DFE38709-0FF8-4FD1-8E83-2DB4F0CC6900}" name="Edge" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{3E7AB764-8F24-4648-939D-387AC1FA6530}" name="OWASP" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{DFE38709-0FF8-4FD1-8E83-2DB4F0CC6900}" name="Edge" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{3E7AB764-8F24-4648-939D-387AC1FA6530}" name="OWASP" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{6F80DC22-3D99-4789-9945-B6C652E99816}" name="Acunetix"/>
-    <tableColumn id="4" xr3:uid="{2314B598-1B4F-48AB-A32C-06DB122DF228}" name="Score" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{139FFC6B-224E-4BDE-AFFB-B43C2515A1C7}" name="Score (scaled)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{2314B598-1B4F-48AB-A32C-06DB122DF228}" name="Score" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{139FFC6B-224E-4BDE-AFFB-B43C2515A1C7}" name="Score (scaled)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3410,15 +3410,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E19"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="41.42578125" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="10.5703125" hidden="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" customWidth="1"/>
@@ -3426,12 +3426,12 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="29" t="s">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="D3" s="9">
         <f>(IF(ISNUMBER(B3),B3*$O$3,0)+IF(ISNUMBER(C3),C3*$O$4,0))/(IF(ISNUMBER(B3),$O$3,0)+IF(ISNUMBER(C3),$O$4,0))</f>
-        <v>25.411235649287629</v>
+        <v>24.012949017770492</v>
       </c>
       <c r="E3" s="6">
         <f>D3/MAX(D$3:D$21)*100</f>
@@ -3478,55 +3478,47 @@
         <v>5</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="6">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="12.75" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="5">
         <f>OWASP!C13</f>
         <v>8.5861360434867411</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C5" s="5">
         <f>Acunetix!I33</f>
         <v>42.85</v>
       </c>
-      <c r="D4" s="9">
-        <f>(IF(ISNUMBER(B4),B4*$O$3,0)+IF(ISNUMBER(C4),C4*$O$4,0))/(IF(ISNUMBER(B4),$O$3,0)+IF(ISNUMBER(C4),$O$4,0))</f>
-        <v>20.007424028991164</v>
-      </c>
-      <c r="E4" s="6">
-        <f>D4/MAX(D$3:D$21)*100</f>
-        <v>78.734557835451199</v>
-      </c>
-      <c r="N4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <f>OWASP!C18</f>
-        <v>2.6591548091418482</v>
-      </c>
-      <c r="C5" s="5">
-        <f>Acunetix!I26</f>
-        <v>46.739999999999995</v>
-      </c>
       <c r="D5" s="9">
-        <f>(IF(ISNUMBER(B5),B5*$O$3,0)+IF(ISNUMBER(C5),C5*$O$4,0))/(IF(ISNUMBER(B5),$O$3,0)+IF(ISNUMBER(C5),$O$4,0))</f>
-        <v>17.352769872761233</v>
+        <f t="shared" ref="D5:D22" si="0">(IF(ISNUMBER(B5),B5*$O$3,0)+IF(ISNUMBER(C5),C5*$O$4,0))/(IF(ISNUMBER(B5),$O$3,0)+IF(ISNUMBER(C5),$O$4,0))</f>
+        <v>11.441458039862846</v>
       </c>
       <c r="E5" s="6">
-        <f>D5/MAX(D$3:D$21)*100</f>
-        <v>68.287784632966847</v>
+        <f t="shared" ref="E5:E22" si="1">D5/MAX(D$3:D$21)*100</f>
+        <v>47.647034237218158</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3542,211 +3534,219 @@
         <v>28.666666666666668</v>
       </c>
       <c r="D6" s="9">
-        <f>(IF(ISNUMBER(B6),B6*$O$3,0)+IF(ISNUMBER(C6),C6*$O$4,0))/(IF(ISNUMBER(B6),$O$3,0)+IF(ISNUMBER(C6),$O$4,0))</f>
-        <v>15.279646251213384</v>
+        <f t="shared" si="0"/>
+        <v>10.259513595418403</v>
       </c>
       <c r="E6" s="6">
-        <f>D6/MAX(D$3:D$21)*100</f>
-        <v>60.129489419935901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <f t="shared" si="1"/>
+        <v>42.724921407303931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="12.95" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="49" t="s">
-        <v>358</v>
-      </c>
-      <c r="D7" s="49"/>
+        <v>360</v>
+      </c>
+      <c r="B7" s="5">
+        <f>(OWASP!C16+OWASP!C6)/2</f>
+        <v>6.0291932664022134</v>
+      </c>
+      <c r="C7" s="5">
+        <f>Acunetix!I29</f>
+        <v>17</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>6.943427160868695</v>
+      </c>
       <c r="E7" s="6">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>28.915345448534026</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <f>(OWASP!B6+OWASP!B29)*100</f>
+        <v>7.405284823616018</v>
+      </c>
+      <c r="C8" s="5">
+        <f>Acunetix!I16</f>
+        <v>0.79</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>6.8540110883146843</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="1"/>
+        <v>28.54297938684023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5">
+        <f>(OWASP!B12+OWASP!B17)*100</f>
+        <v>6.7652287109112628</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>6.7652287109112628</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="1"/>
+        <v>28.173252297769579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <f>OWASP!C18</f>
+        <v>2.6591548091418482</v>
+      </c>
+      <c r="C10" s="5">
+        <f>Acunetix!I26</f>
+        <v>46.739999999999995</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>6.3325585750466935</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="1"/>
+        <v>26.371432223340669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="12.4" customHeight="1">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B11" s="5">
         <f>OWASP!C3</f>
         <v>3.9337416545295936</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C11" s="5">
         <f>Acunetix!I3</f>
         <v>26.56</v>
       </c>
-      <c r="D8" s="9">
-        <f>(IF(ISNUMBER(B8),B8*$O$3,0)+IF(ISNUMBER(C8),C8*$O$4,0))/(IF(ISNUMBER(B8),$O$3,0)+IF(ISNUMBER(C8),$O$4,0))</f>
-        <v>11.475827769686395</v>
-      </c>
-      <c r="E8" s="6">
-        <f>D8/MAX(D$3:D$21)*100</f>
-        <v>45.160447638476427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="4" t="s">
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>5.8192631833187933</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="1"/>
+        <v>24.233854738176134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5">
+        <f>(OWASP!B14+OWASP!B15)*100</f>
+        <v>5.0421229094070856</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>5.0421229094070856</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="1"/>
+        <v>20.997516405318329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5">
+        <f>OWASP!C28</f>
+        <v>4.9795900396539095</v>
+      </c>
+      <c r="C13" s="5">
+        <f>Acunetix!I17</f>
+        <v>3.95</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>4.8937908696827508</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="1"/>
+        <v>20.379799524253187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B14" s="5">
         <f>OWASP!C25</f>
         <v>1.9575881276408278</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C14" s="5">
         <f>Acunetix!I24</f>
         <v>29.049999999999997</v>
       </c>
-      <c r="D9" s="9">
-        <f>(IF(ISNUMBER(B9),B9*$O$3,0)+IF(ISNUMBER(C9),C9*$O$4,0))/(IF(ISNUMBER(B9),$O$3,0)+IF(ISNUMBER(C9),$O$4,0))</f>
-        <v>10.988392085093885</v>
-      </c>
-      <c r="E9" s="6">
-        <f>D9/MAX(D$3:D$21)*100</f>
-        <v>43.242258018263392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B10" s="5">
-        <f>(OWASP!C16+OWASP!C6)/2</f>
-        <v>6.0291932664022134</v>
-      </c>
-      <c r="C10" s="5">
-        <f>Acunetix!I29</f>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
+        <v>4.215289117004092</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="1"/>
+        <v>17.554233400839767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <f>OWASP!C11</f>
+        <v>3.3101175619379664</v>
+      </c>
+      <c r="C15" s="5">
+        <f>Acunetix!H7</f>
+        <v>1.38</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>3.1492744317764694</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="1"/>
+        <v>13.114900753946909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="9">
-        <f>(IF(ISNUMBER(B10),B10*$O$3,0)+IF(ISNUMBER(C10),C10*$O$4,0))/(IF(ISNUMBER(B10),$O$3,0)+IF(ISNUMBER(C10),$O$4,0))</f>
-        <v>9.6861288442681417</v>
-      </c>
-      <c r="E10" s="6">
-        <f>D10/MAX(D$3:D$21)*100</f>
-        <v>38.11750431167907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <f>(OWASP!B12+OWASP!B17)*100</f>
-        <v>6.7652287109112628</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9">
-        <f>(IF(ISNUMBER(B11),B11*$O$3,0)+IF(ISNUMBER(C11),C11*$O$4,0))/(IF(ISNUMBER(B11),$O$3,0)+IF(ISNUMBER(C11),$O$4,0))</f>
-        <v>6.7652287109112628</v>
-      </c>
-      <c r="E11" s="6">
-        <f>D11/MAX(D$3:D$21)*100</f>
-        <v>26.622982070928604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5">
-        <f>(OWASP!B6+OWASP!B29)*100</f>
-        <v>7.405284823616018</v>
-      </c>
-      <c r="C12" s="5">
-        <f>Acunetix!I16</f>
-        <v>0.79</v>
-      </c>
-      <c r="D12" s="9">
-        <f>(IF(ISNUMBER(B12),B12*$O$3,0)+IF(ISNUMBER(C12),C12*$O$4,0))/(IF(ISNUMBER(B12),$O$3,0)+IF(ISNUMBER(C12),$O$4,0))</f>
-        <v>5.2001898824106787</v>
-      </c>
-      <c r="E12" s="6">
-        <f>D12/MAX(D$3:D$21)*100</f>
-        <v>20.464136235564993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5">
-        <f>(OWASP!B14+OWASP!B15)*100</f>
-        <v>5.0421229094070856</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9">
-        <f>(IF(ISNUMBER(B13),B13*$O$3,0)+IF(ISNUMBER(C13),C13*$O$4,0))/(IF(ISNUMBER(B13),$O$3,0)+IF(ISNUMBER(C13),$O$4,0))</f>
-        <v>5.0421229094070856</v>
-      </c>
-      <c r="E13" s="6">
-        <f>D13/MAX(D$3:D$21)*100</f>
-        <v>19.842100474749778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="5">
-        <f>OWASP!C28</f>
-        <v>4.9795900396539095</v>
-      </c>
-      <c r="C14" s="5">
-        <f>Acunetix!I17</f>
-        <v>3.95</v>
-      </c>
-      <c r="D14" s="9">
-        <f>(IF(ISNUMBER(B14),B14*$O$3,0)+IF(ISNUMBER(C14),C14*$O$4,0))/(IF(ISNUMBER(B14),$O$3,0)+IF(ISNUMBER(C14),$O$4,0))</f>
-        <v>4.636393359769273</v>
-      </c>
-      <c r="E14" s="6">
-        <f>D14/MAX(D$3:D$21)*100</f>
-        <v>18.245446320510776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="25.5">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="B16" s="5">
         <f>OWASP!C7</f>
         <v>3.1476525477702273</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="9">
-        <f>(IF(ISNUMBER(B15),B15*$O$3,0)+IF(ISNUMBER(C15),C15*$O$4,0))/(IF(ISNUMBER(B15),$O$3,0)+IF(ISNUMBER(C15),$O$4,0))</f>
-        <v>3.1476525477702273</v>
-      </c>
-      <c r="E15" s="6">
-        <f>D15/MAX(D$3:D$21)*100</f>
-        <v>12.386853560418922</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5">
-        <f>OWASP!C11</f>
-        <v>3.3101175619379664</v>
-      </c>
-      <c r="C16" s="5">
-        <f>Acunetix!H7</f>
-        <v>1.38</v>
-      </c>
       <c r="D16" s="9">
-        <f>(IF(ISNUMBER(B16),B16*$O$3,0)+IF(ISNUMBER(C16),C16*$O$4,0))/(IF(ISNUMBER(B16),$O$3,0)+IF(ISNUMBER(C16),$O$4,0))</f>
-        <v>2.6667450412919771</v>
+        <f t="shared" si="0"/>
+        <v>3.1476525477702277</v>
       </c>
       <c r="E16" s="6">
-        <f>D16/MAX(D$3:D$21)*100</f>
-        <v>10.494354064859241</v>
+        <f t="shared" si="1"/>
+        <v>13.108146548101383</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3761,12 +3761,12 @@
         <v>10</v>
       </c>
       <c r="D17" s="9">
-        <f>(IF(ISNUMBER(B17),B17*$O$3,0)+IF(ISNUMBER(C17),C17*$O$4,0))/(IF(ISNUMBER(B17),$O$3,0)+IF(ISNUMBER(C17),$O$4,0))</f>
+        <f t="shared" si="0"/>
         <v>1.2651198633455827</v>
       </c>
       <c r="E17" s="6">
-        <f>D17/MAX(D$3:D$21)*100</f>
-        <v>4.9785845946497629</v>
+        <f t="shared" si="1"/>
+        <v>5.2684901900609793</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3782,15 +3782,15 @@
         <v>1.6500000000000001</v>
       </c>
       <c r="D18" s="9">
-        <f>(IF(ISNUMBER(B18),B18*$O$3,0)+IF(ISNUMBER(C18),C18*$O$4,0))/(IF(ISNUMBER(B18),$O$3,0)+IF(ISNUMBER(C18),$O$4,0))</f>
-        <v>1.0838608144529942</v>
+        <f t="shared" si="0"/>
+        <v>0.87155861987286698</v>
       </c>
       <c r="E18" s="6">
-        <f>D18/MAX(D$3:D$21)*100</f>
-        <v>4.2652818202619711</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>3.6295359609012645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.4" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>359</v>
       </c>
@@ -3803,74 +3803,74 @@
         <v>0.82500000000000007</v>
       </c>
       <c r="D19" s="5">
-        <f>(IF(ISNUMBER(B19),B19*$O$3,0)+IF(ISNUMBER(C19),C19*$O$4,0))/(IF(ISNUMBER(B19),$O$3,0)+IF(ISNUMBER(C19),$O$4,0))</f>
-        <v>0.80886081445299407</v>
+        <f t="shared" si="0"/>
+        <v>0.80280861987286689</v>
       </c>
       <c r="E19" s="6">
-        <f>D19/MAX(D$3:D$21)*100</f>
-        <v>3.183083363660316</v>
+        <f t="shared" si="1"/>
+        <v>3.3432321006418584</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="41">
         <f>OWASP!C9</f>
         <v>0.4535018658029642</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="41">
         <f>Acunetix!H9</f>
         <v>0.53</v>
       </c>
-      <c r="D20" s="51">
-        <f>(IF(ISNUMBER(B20),B20*$O$3,0)+IF(ISNUMBER(C20),C20*$O$4,0))/(IF(ISNUMBER(B20),$O$3,0)+IF(ISNUMBER(C20),$O$4,0))</f>
-        <v>0.47900124386864285</v>
-      </c>
-      <c r="E20" s="51">
-        <f>D20/MAX(D$3:D$21)*100</f>
-        <v>1.884997842999701</v>
+      <c r="D20" s="41">
+        <f t="shared" si="0"/>
+        <v>0.45987671031938387</v>
+      </c>
+      <c r="E20" s="41">
+        <f t="shared" si="1"/>
+        <v>1.9151196713867076</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="41">
+        <f>OWASP!C34</f>
+        <v>0.15169574168382274</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="41">
+        <f t="shared" si="0"/>
+        <v>0.15169574168382274</v>
+      </c>
+      <c r="E21" s="41">
+        <f t="shared" si="1"/>
+        <v>0.63172474805806711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="A22" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B22" s="41">
         <f>OWASP!C24</f>
         <v>3.9632061309863041E-2</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C22" s="41">
         <f>Acunetix!I18</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="D21" s="51">
-        <f>(IF(ISNUMBER(B21),B21*$O$3,0)+IF(ISNUMBER(C21),C21*$O$4,0))/(IF(ISNUMBER(B21),$O$3,0)+IF(ISNUMBER(C21),$O$4,0))</f>
-        <v>0.2597547075399087</v>
-      </c>
-      <c r="E21" s="51">
-        <f>D21/MAX(D$3:D$21)*100</f>
-        <v>1.0222041585261934</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="51">
-        <f>OWASP!C34</f>
-        <v>0.15169574168382274</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="51">
-        <f>(IF(ISNUMBER(B22),B22*$O$3,0)+IF(ISNUMBER(C22),C22*$O$4,0))/(IF(ISNUMBER(B22),$O$3,0)+IF(ISNUMBER(C22),$O$4,0))</f>
-        <v>0.15169574168382274</v>
-      </c>
-      <c r="E22" s="51">
-        <f>D22/MAX(D$3:D$21)*100</f>
-        <v>0.59696326372100417</v>
+      <c r="D22" s="41">
+        <f t="shared" si="0"/>
+        <v>9.4662722867374469E-2</v>
+      </c>
+      <c r="E22" s="41">
+        <f t="shared" si="1"/>
+        <v>0.39421531606684573</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4469,14 +4469,14 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="C3" s="47" t="str">
+      <c r="C3" s="37" t="str">
         <f>OWASP!A8</f>
         <v>Cross-Site Scripting (XSS) Vulnerabilities (CWE-79)</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="37" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4484,14 +4484,14 @@
       <c r="A4" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="47" t="str">
+      <c r="C4" s="37" t="str">
         <f>OWASP!A13</f>
         <v>Security Misconfiguration Vulnerabilities (CWE-2)</v>
       </c>
-      <c r="D4" s="47" t="str">
+      <c r="D4" s="37" t="str">
         <f>Acunetix!A33</f>
         <v>Web Server Vulnerabilities
 &amp; Misconfigurations</v>
@@ -4501,14 +4501,14 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="47" t="str">
+      <c r="C5" s="37" t="str">
         <f>OWASP!A18</f>
         <v>Cross-Site Request Forgery (CSRF) Vulnerabilities (CWE-352)</v>
       </c>
-      <c r="D5" s="47" t="str">
+      <c r="D5" s="37" t="str">
         <f>Acunetix!A26</f>
         <v>Cross-site Request Forgery</v>
       </c>
@@ -4517,14 +4517,14 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="47" t="str">
+      <c r="C6" s="37" t="str">
         <f>OWASP!A13</f>
         <v>Security Misconfiguration Vulnerabilities (CWE-2)</v>
       </c>
-      <c r="D6" s="47" t="str">
+      <c r="D6" s="37" t="str">
         <f>Acunetix!A20</f>
         <v>Network Vulnerabilities</v>
       </c>
@@ -4533,13 +4533,13 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="47" t="str">
+      <c r="D7" s="37" t="str">
         <f>Acunetix!A3</f>
         <v>SQL Injection (SQLi)</v>
       </c>
@@ -4548,14 +4548,14 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="C8" s="47" t="str">
+      <c r="C8" s="37" t="str">
         <f>OWASP!A25</f>
         <v>Denial of Service (DOS) Vulnerabilities (CWE-400)</v>
       </c>
-      <c r="D8" s="47" t="str">
+      <c r="D8" s="37" t="str">
         <f>Acunetix!A24</f>
         <v>DoS</v>
       </c>
@@ -4564,16 +4564,16 @@
       <c r="A9" t="s">
         <v>360</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="37" t="s">
         <v>362</v>
       </c>
-      <c r="C9" s="47" t="str">
+      <c r="C9" s="37" t="str">
         <f>OWASP!A16 &amp; "
 " &amp; OWASP!A6</f>
         <v>Cryptographic Vulnerabilities (CWEs-310/326/327/etc)
 Authentication Vulnerabilities (CWE-287)</v>
       </c>
-      <c r="D9" s="47" t="str">
+      <c r="D9" s="37" t="str">
         <f>Acunetix!A29</f>
         <v>TLS/SSL Vulnerabilities</v>
       </c>
@@ -4582,16 +4582,16 @@
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="42" t="s">
         <v>368</v>
       </c>
-      <c r="C10" s="47" t="str">
+      <c r="C10" s="37" t="str">
         <f>OWASP!A12 &amp; "
 " &amp; OWASP!A17</f>
         <v>Missing Authorization Vulnerabilities (CWE-285)
 Improper (Function Level) Access Control Vulnerabilities (CWE-285)</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="37" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4599,16 +4599,16 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="37" t="s">
         <v>362</v>
       </c>
-      <c r="C11" s="47" t="str">
+      <c r="C11" s="37" t="str">
         <f>OWASP!A6 &amp; "
 " &amp; OWASP!A29</f>
         <v>Authentication Vulnerabilities (CWE-287)
 Insufficient Anti-automation Vulnerabilities (CWE-799)</v>
       </c>
-      <c r="D11" s="47" t="str">
+      <c r="D11" s="37" t="str">
         <f>Acunetix!A16</f>
         <v>Weak Passwords</v>
       </c>
@@ -4617,16 +4617,16 @@
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="37" t="s">
         <v>362</v>
       </c>
-      <c r="C12" s="47" t="str">
+      <c r="C12" s="37" t="str">
         <f>OWASP!A14 &amp; "
 " &amp; OWASP!A15</f>
         <v>Cleartext Transmission of Sensitive Information Vulnerabilities (CWE-319)
 Cleartext Storage of Sensitive Information Vulnerabilities (CWE-312)</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="37" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4634,14 +4634,14 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="47" t="str">
+      <c r="C13" s="37" t="str">
         <f>OWASP!A28</f>
         <v>Information Leakage/Disclosure Vulnerabilities (CWE-200)</v>
       </c>
-      <c r="D13" s="47" t="str">
+      <c r="D13" s="37" t="str">
         <f>Acunetix!A17</f>
         <v>Source Code Disclosure</v>
       </c>
@@ -4650,14 +4650,14 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="37" t="s">
         <v>365</v>
       </c>
-      <c r="C14" s="47" t="str">
+      <c r="C14" s="37" t="str">
         <f>OWASP!A7</f>
         <v>Session Fixation Vulnerabilities (CWE-384)</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="37" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4665,14 +4665,14 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="C15" s="47" t="str">
+      <c r="C15" s="37" t="str">
         <f>OWASP!A11</f>
         <v>Path Traversal Vulnerabilities (CWE-22)</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="37" t="s">
         <v>371</v>
       </c>
     </row>
@@ -4680,16 +4680,16 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="47" t="str">
+      <c r="C16" s="37" t="str">
         <f>OWASP!A20 &amp; "
 " &amp; OWASP!A21</f>
         <v>Unchecked Redirect Vulnerabilities (CWE-601)
 Unvalidated Forward Vulnerabilities (No CWE)</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="37" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4697,23 +4697,23 @@
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="47" t="str">
+      <c r="C17" s="37" t="str">
         <f>OWASP!A5</f>
         <v>Command Injection Vulnerabilities (CWE-77)</v>
       </c>
-      <c r="D17" s="47" t="str">
+      <c r="D17" s="37" t="str">
         <f>Acunetix!A2</f>
         <v>Remote Code Execution</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="D18" s="47"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="D19" s="47"/>
+      <c r="D19" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4739,10 +4739,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="43" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="31"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -5572,8 +5572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4733CD-42C4-4DAF-9E30-BEA085CAF746}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B46" sqref="B15:B46"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5597,46 +5597,46 @@
       <c r="A1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44" t="s">
+      <c r="N1" s="34"/>
+      <c r="O1" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44" t="s">
+      <c r="R1" s="34"/>
+      <c r="S1" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="V1" s="44"/>
+      <c r="V1" s="34"/>
       <c r="W1" t="s">
         <v>195</v>
       </c>
@@ -5648,39 +5648,39 @@
       <c r="E2" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="45"/>
+      <c r="F2" s="35"/>
       <c r="G2" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="45"/>
+      <c r="H2" s="35"/>
       <c r="I2" t="s">
         <v>199</v>
       </c>
-      <c r="J2" s="45"/>
+      <c r="J2" s="35"/>
       <c r="K2" t="s">
         <v>200</v>
       </c>
-      <c r="L2" s="45"/>
+      <c r="L2" s="35"/>
       <c r="M2" t="s">
         <v>201</v>
       </c>
-      <c r="N2" s="45"/>
+      <c r="N2" s="35"/>
       <c r="O2" t="s">
         <v>202</v>
       </c>
-      <c r="P2" s="45"/>
+      <c r="P2" s="35"/>
       <c r="Q2" t="s">
         <v>203</v>
       </c>
-      <c r="R2" s="45"/>
+      <c r="R2" s="35"/>
       <c r="S2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" s="45"/>
+      <c r="T2" s="35"/>
       <c r="U2" t="s">
         <v>205</v>
       </c>
-      <c r="V2" s="45"/>
+      <c r="V2" s="35"/>
       <c r="W2" t="s">
         <v>206</v>
       </c>
@@ -5689,46 +5689,46 @@
       <c r="A3" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44" t="s">
+      <c r="H3" s="34"/>
+      <c r="I3" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44" t="s">
+      <c r="J3" s="34"/>
+      <c r="K3" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44" t="s">
+      <c r="L3" s="34"/>
+      <c r="M3" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44" t="s">
+      <c r="N3" s="34"/>
+      <c r="O3" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44" t="s">
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44" t="s">
+      <c r="R3" s="34"/>
+      <c r="S3" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44" t="s">
+      <c r="T3" s="34"/>
+      <c r="U3" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="V3" s="44"/>
+      <c r="V3" s="34"/>
       <c r="W3" t="s">
         <v>218</v>
       </c>
@@ -5737,46 +5737,46 @@
       <c r="A4" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34">
         <v>2015</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44" t="s">
+      <c r="H4" s="34"/>
+      <c r="I4" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44">
+      <c r="J4" s="34"/>
+      <c r="K4" s="34">
         <v>2015</v>
       </c>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44" t="s">
+      <c r="L4" s="34"/>
+      <c r="M4" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44" t="s">
+      <c r="N4" s="34"/>
+      <c r="O4" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44">
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34">
         <v>2015</v>
       </c>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44" t="s">
+      <c r="R4" s="34"/>
+      <c r="S4" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44" t="s">
+      <c r="T4" s="34"/>
+      <c r="U4" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="V4" s="44"/>
+      <c r="V4" s="34"/>
       <c r="W4" t="s">
         <v>220</v>
       </c>
@@ -5785,63 +5785,63 @@
       <c r="A5" t="s">
         <v>221</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="J5" s="44"/>
+      <c r="J5" s="34"/>
       <c r="K5" t="s">
         <v>223</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="Q5" s="44" t="s">
+      <c r="L5" s="35"/>
+      <c r="Q5" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="R5" s="44"/>
+      <c r="R5" s="34"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="34">
         <v>356</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34">
         <v>44627</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34">
         <v>200</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44">
+      <c r="H6" s="34"/>
+      <c r="I6" s="34">
         <v>1400</v>
       </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44">
+      <c r="J6" s="34"/>
+      <c r="K6" s="34">
         <v>111</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44">
+      <c r="L6" s="34"/>
+      <c r="M6" s="34">
         <v>148</v>
       </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44">
+      <c r="N6" s="34"/>
+      <c r="O6" s="34">
         <v>54</v>
       </c>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44">
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34">
         <v>3734</v>
       </c>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44">
+      <c r="R6" s="34"/>
+      <c r="S6" s="34">
         <v>110</v>
       </c>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44">
+      <c r="T6" s="34"/>
+      <c r="U6" s="34">
         <v>155</v>
       </c>
-      <c r="V6" s="44"/>
+      <c r="V6" s="34"/>
       <c r="W6">
         <v>2490</v>
       </c>
@@ -5850,46 +5850,46 @@
       <c r="A7" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44" t="s">
+      <c r="J7" s="34"/>
+      <c r="K7" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44" t="s">
+      <c r="L7" s="34"/>
+      <c r="M7" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44" t="s">
+      <c r="N7" s="34"/>
+      <c r="O7" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44" t="s">
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44" t="s">
+      <c r="R7" s="34"/>
+      <c r="S7" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44" t="s">
+      <c r="T7" s="34"/>
+      <c r="U7" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="V7" s="44"/>
+      <c r="V7" s="34"/>
       <c r="W7" t="s">
         <v>231</v>
       </c>
@@ -5898,36 +5898,36 @@
       <c r="A8" t="s">
         <v>232</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44" t="s">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44" t="s">
+      <c r="H8" s="34"/>
+      <c r="I8" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="M8" s="44" t="s">
+      <c r="J8" s="34"/>
+      <c r="M8" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44" t="s">
+      <c r="N8" s="34"/>
+      <c r="O8" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44" t="s">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="R8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
+      <c r="R8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
       <c r="W8" t="s">
         <v>240</v>
       </c>
@@ -5936,39 +5936,39 @@
       <c r="A9" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44" t="s">
+      <c r="D9" s="34"/>
+      <c r="E9" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44" t="s">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44" t="s">
+      <c r="H9" s="34"/>
+      <c r="I9" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44" t="s">
+      <c r="J9" s="34"/>
+      <c r="K9" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44" t="s">
+      <c r="L9" s="34"/>
+      <c r="M9" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44" t="s">
+      <c r="N9" s="34"/>
+      <c r="O9" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44" t="s">
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="R9" s="44"/>
-      <c r="U9" s="44" t="s">
+      <c r="R9" s="34"/>
+      <c r="U9" s="34" t="s">
         <v>250</v>
       </c>
       <c r="W9" t="s">
@@ -5979,42 +5979,42 @@
       <c r="A10" t="s">
         <v>252</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="G10" s="44" t="s">
+      <c r="D10" s="34"/>
+      <c r="G10" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44" t="s">
+      <c r="J10" s="34"/>
+      <c r="K10" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44" t="s">
+      <c r="L10" s="34"/>
+      <c r="M10" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44" t="s">
+      <c r="N10" s="34"/>
+      <c r="O10" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44" t="s">
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44" t="s">
+      <c r="R10" s="34"/>
+      <c r="S10" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44" t="s">
+      <c r="T10" s="34"/>
+      <c r="U10" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="V10" s="44"/>
+      <c r="V10" s="34"/>
       <c r="W10" t="s">
         <v>260</v>
       </c>
@@ -6023,46 +6023,46 @@
       <c r="A11" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="34"/>
+      <c r="E11" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44" t="s">
+      <c r="F11" s="34"/>
+      <c r="G11" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44" t="s">
+      <c r="H11" s="34"/>
+      <c r="I11" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44" t="s">
+      <c r="J11" s="34"/>
+      <c r="K11" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44" t="s">
+      <c r="L11" s="34"/>
+      <c r="M11" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44" t="s">
+      <c r="N11" s="34"/>
+      <c r="O11" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44" t="s">
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44" t="s">
+      <c r="R11" s="34"/>
+      <c r="S11" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44" t="s">
+      <c r="T11" s="34"/>
+      <c r="U11" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="V11" s="44"/>
+      <c r="V11" s="34"/>
       <c r="W11" t="s">
         <v>264</v>
       </c>
@@ -6071,46 +6071,46 @@
       <c r="A12" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44" t="s">
+      <c r="D12" s="34"/>
+      <c r="E12" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44" t="s">
+      <c r="F12" s="34"/>
+      <c r="G12" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44" t="s">
+      <c r="H12" s="34"/>
+      <c r="I12" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44" t="s">
+      <c r="J12" s="34"/>
+      <c r="K12" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44" t="s">
+      <c r="L12" s="34"/>
+      <c r="M12" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44" t="s">
+      <c r="N12" s="34"/>
+      <c r="O12" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44" t="s">
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44" t="s">
+      <c r="R12" s="34"/>
+      <c r="S12" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44" t="s">
+      <c r="T12" s="34"/>
+      <c r="U12" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="V12" s="44"/>
+      <c r="V12" s="34"/>
       <c r="W12" t="s">
         <v>273</v>
       </c>
@@ -6119,40 +6119,40 @@
       <c r="A13" t="s">
         <v>274</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44" t="s">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44" t="s">
+      <c r="H13" s="34"/>
+      <c r="I13" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="M13" s="44" t="s">
+      <c r="J13" s="34"/>
+      <c r="M13" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="N13" s="44"/>
-      <c r="Q13" s="44" t="s">
+      <c r="N13" s="34"/>
+      <c r="Q13" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="R13" s="44"/>
-      <c r="U13" s="44" t="s">
+      <c r="R13" s="34"/>
+      <c r="U13" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="V13" s="44"/>
+      <c r="V13" s="34"/>
       <c r="W13" t="s">
         <v>282</v>
       </c>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
@@ -6161,61 +6161,61 @@
       <c r="B14" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="34" t="s">
         <v>284</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="34" t="s">
         <v>285</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="34" t="s">
         <v>286</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="34" t="s">
         <v>287</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K14" s="44" t="s">
+      <c r="K14" s="34" t="s">
         <v>288</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="M14" s="44" t="s">
+      <c r="M14" s="34" t="s">
         <v>284</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="O14" s="44" t="s">
+      <c r="O14" s="34" t="s">
         <v>289</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="Q14" s="44" t="s">
+      <c r="Q14" s="34" t="s">
         <v>290</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="S14" s="44" t="s">
+      <c r="S14" s="34" t="s">
         <v>291</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="U14" s="44" t="s">
+      <c r="U14" s="34" t="s">
         <v>292</v>
       </c>
       <c r="V14" s="3" t="s">
@@ -6227,91 +6227,91 @@
       <c r="X14" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="32">
         <f>(D15+F15+H15+J15+L15+N15+P15+R15+T15+V15+X15)/11</f>
         <v>3.9337416545295933E-2</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="34">
         <v>27</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="38">
         <f>C15/C$47</f>
         <v>5.697404515720616E-3</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="34">
         <v>173883</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="38">
         <f>E15/E$47</f>
         <v>7.8967015899399168E-2</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="34">
         <v>9</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="38">
         <f>G15/G$47</f>
         <v>4.8806941431670282E-3</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="34">
         <v>780</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="38">
         <f>I15/I$47</f>
         <v>6.6683765067966139E-2</v>
       </c>
-      <c r="K15" s="44">
+      <c r="K15" s="34">
         <v>50</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="38">
         <f>K15/K$47</f>
         <v>5.959475566150179E-2</v>
       </c>
-      <c r="M15" s="44">
+      <c r="M15" s="34">
         <v>17</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="38">
         <f>M15/M$47</f>
         <v>1.486013986013986E-2</v>
       </c>
-      <c r="O15" s="44">
+      <c r="O15" s="34">
         <v>371</v>
       </c>
-      <c r="P15" s="48">
+      <c r="P15" s="38">
         <f>O15/O$47</f>
         <v>3.2384776536312852E-2</v>
       </c>
-      <c r="Q15" s="44">
+      <c r="Q15" s="34">
         <v>7506</v>
       </c>
-      <c r="R15" s="48">
+      <c r="R15" s="38">
         <f>Q15/Q$47</f>
         <v>0.1251333688983729</v>
       </c>
-      <c r="S15" s="44">
+      <c r="S15" s="34">
         <v>154</v>
       </c>
-      <c r="T15" s="48">
+      <c r="T15" s="38">
         <f>S15/S$47</f>
         <v>2.2331786542923435E-2</v>
       </c>
-      <c r="U15" s="44">
+      <c r="U15" s="34">
         <v>13</v>
       </c>
-      <c r="V15" s="48">
+      <c r="V15" s="38">
         <f>U15/U$47</f>
         <v>8.4911822338340961E-3</v>
       </c>
       <c r="W15">
         <v>267</v>
       </c>
-      <c r="X15" s="48">
+      <c r="X15" s="38">
         <f>W15/W$47</f>
         <v>1.3686692638917367E-2</v>
       </c>
@@ -6320,78 +6320,78 @@
       <c r="A16" t="s">
         <v>295</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="32">
         <f t="shared" ref="B16:B46" si="0">(D16+F16+H16+J16+L16+N16+P16+R16+T16+V16+X16)/11</f>
         <v>2.145887384511991E-4</v>
       </c>
-      <c r="C16" s="44">
-        <v>0</v>
-      </c>
-      <c r="D16" s="48">
+      <c r="C16" s="34">
+        <v>0</v>
+      </c>
+      <c r="D16" s="38">
         <f t="shared" ref="D16:F46" si="1">C16/C$47</f>
         <v>0</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="34">
         <v>1993</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="38">
         <f t="shared" si="1"/>
         <v>9.0509861623909503E-4</v>
       </c>
-      <c r="G16" s="44">
-        <v>0</v>
-      </c>
-      <c r="H16" s="48">
+      <c r="G16" s="34">
+        <v>0</v>
+      </c>
+      <c r="H16" s="38">
         <f t="shared" ref="H16" si="2">G16/G$47</f>
         <v>0</v>
       </c>
-      <c r="I16" s="44">
-        <v>0</v>
-      </c>
-      <c r="J16" s="48">
+      <c r="I16" s="34">
+        <v>0</v>
+      </c>
+      <c r="J16" s="38">
         <f t="shared" ref="J16" si="3">I16/I$47</f>
         <v>0</v>
       </c>
-      <c r="K16" s="44">
-        <v>0</v>
-      </c>
-      <c r="L16" s="48">
+      <c r="K16" s="34">
+        <v>0</v>
+      </c>
+      <c r="L16" s="38">
         <f t="shared" ref="L16" si="4">K16/K$47</f>
         <v>0</v>
       </c>
-      <c r="M16" s="44">
-        <v>0</v>
-      </c>
-      <c r="N16" s="48">
+      <c r="M16" s="34">
+        <v>0</v>
+      </c>
+      <c r="N16" s="38">
         <f t="shared" ref="N16" si="5">M16/M$47</f>
         <v>0</v>
       </c>
-      <c r="O16" s="44">
-        <v>0</v>
-      </c>
-      <c r="P16" s="48">
+      <c r="O16" s="34">
+        <v>0</v>
+      </c>
+      <c r="P16" s="38">
         <f t="shared" ref="P16" si="6">O16/O$47</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="Q16" s="34">
         <v>75</v>
       </c>
-      <c r="R16" s="48">
+      <c r="R16" s="38">
         <f t="shared" ref="R16" si="7">Q16/Q$47</f>
         <v>1.2503334222459322E-3</v>
       </c>
-      <c r="T16" s="48">
+      <c r="T16" s="38">
         <f t="shared" ref="T16" si="8">S16/S$47</f>
         <v>0</v>
       </c>
-      <c r="V16" s="48">
+      <c r="V16" s="38">
         <f t="shared" ref="V16" si="9">U16/U$47</f>
         <v>0</v>
       </c>
       <c r="W16">
         <v>4</v>
       </c>
-      <c r="X16" s="48">
+      <c r="X16" s="38">
         <f t="shared" ref="X16" si="10">W16/W$47</f>
         <v>2.0504408447816281E-4</v>
       </c>
@@ -6400,84 +6400,84 @@
       <c r="A17" t="s">
         <v>296</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="32">
         <f t="shared" si="0"/>
         <v>8.0079122167949109E-3</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="34">
         <v>22</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="38">
         <f t="shared" si="1"/>
         <v>4.6423296054019835E-3</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="34">
         <v>7673</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="38">
         <f t="shared" si="1"/>
         <v>3.4846069655808209E-3</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="34">
         <v>2</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="38">
         <f t="shared" ref="H17" si="11">G17/G$47</f>
         <v>1.0845986984815619E-3</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="34">
         <v>14</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="38">
         <f t="shared" ref="J17" si="12">I17/I$47</f>
         <v>1.1968880909634949E-3</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="34">
         <v>6</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="38">
         <f t="shared" ref="L17" si="13">K17/K$47</f>
         <v>7.1513706793802142E-3</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="34">
         <v>1</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="38">
         <f t="shared" ref="N17" si="14">M17/M$47</f>
         <v>8.7412587412587413E-4</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="34">
         <v>1</v>
       </c>
-      <c r="P17" s="48">
+      <c r="P17" s="38">
         <f t="shared" ref="P17" si="15">O17/O$47</f>
         <v>8.7290502793296092E-5</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="34">
         <v>196</v>
       </c>
-      <c r="R17" s="48">
+      <c r="R17" s="38">
         <f t="shared" ref="R17" si="16">Q17/Q$47</f>
         <v>3.2675380101360361E-3</v>
       </c>
-      <c r="S17" s="44">
+      <c r="S17" s="34">
         <v>8</v>
       </c>
-      <c r="T17" s="48">
+      <c r="T17" s="38">
         <f t="shared" ref="T17" si="17">S17/S$47</f>
         <v>1.1600928074245939E-3</v>
       </c>
-      <c r="U17" s="44">
+      <c r="U17" s="34">
         <v>98</v>
       </c>
-      <c r="V17" s="48">
+      <c r="V17" s="38">
         <f t="shared" ref="V17" si="18">U17/U$47</f>
         <v>6.4010450685826253E-2</v>
       </c>
       <c r="W17">
         <v>22</v>
       </c>
-      <c r="X17" s="48">
+      <c r="X17" s="38">
         <f t="shared" ref="X17" si="19">W17/W$47</f>
         <v>1.1277424646298955E-3</v>
       </c>
@@ -6486,83 +6486,83 @@
       <c r="A18" t="s">
         <v>297</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="32">
         <f t="shared" si="0"/>
         <v>6.1078507539355002E-2</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="34">
         <v>21</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="38">
         <f t="shared" si="1"/>
         <v>4.4313146233382573E-3</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="34">
         <v>30</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="38">
         <f t="shared" si="1"/>
         <v>1.3624163816945735E-5</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="34">
         <v>124</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="38">
         <f t="shared" ref="H18" si="20">G18/G$47</f>
         <v>6.7245119305856832E-2</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="34">
         <v>400</v>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="38">
         <f t="shared" ref="J18" si="21">I18/I$47</f>
         <v>3.4196802598957E-2</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="34">
         <v>70</v>
       </c>
-      <c r="L18" s="48">
+      <c r="L18" s="38">
         <f t="shared" ref="L18" si="22">K18/K$47</f>
         <v>8.3432657926102508E-2</v>
       </c>
-      <c r="N18" s="48">
+      <c r="N18" s="38">
         <f t="shared" ref="N18" si="23">M18/M$47</f>
         <v>0</v>
       </c>
-      <c r="O18" s="44">
+      <c r="O18" s="34">
         <f>176+64+131</f>
         <v>371</v>
       </c>
-      <c r="P18" s="48">
+      <c r="P18" s="38">
         <f t="shared" ref="P18" si="24">O18/O$47</f>
         <v>3.2384776536312852E-2</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="Q18" s="34">
         <v>3196</v>
       </c>
-      <c r="R18" s="48">
+      <c r="R18" s="38">
         <f t="shared" ref="R18" si="25">Q18/Q$47</f>
         <v>5.3280874899973324E-2</v>
       </c>
-      <c r="S18" s="44">
+      <c r="S18" s="34">
         <v>102</v>
       </c>
-      <c r="T18" s="48">
+      <c r="T18" s="38">
         <f t="shared" ref="T18" si="26">S18/S$47</f>
         <v>1.4791183294663572E-2</v>
       </c>
-      <c r="U18" s="44">
+      <c r="U18" s="34">
         <f>219+30</f>
         <v>249</v>
       </c>
-      <c r="V18" s="48">
+      <c r="V18" s="38">
         <f t="shared" ref="V18" si="27">U18/U$47</f>
         <v>0.16263879817112997</v>
       </c>
       <c r="W18">
         <v>4281</v>
       </c>
-      <c r="X18" s="48">
+      <c r="X18" s="38">
         <f t="shared" ref="X18" si="28">W18/W$47</f>
         <v>0.21944843141275375</v>
       </c>
@@ -6571,85 +6571,85 @@
       <c r="A19" t="s">
         <v>298</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="32">
         <f t="shared" si="0"/>
         <v>3.1476525477702272E-2</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="34">
         <v>20</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="38">
         <f t="shared" si="1"/>
         <v>4.2202996412745303E-3</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="34">
         <v>2973</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="38">
         <f t="shared" si="1"/>
         <v>1.3501546342593223E-3</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="34">
         <v>76</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="38">
         <f t="shared" ref="H19" si="29">G19/G$47</f>
         <v>4.1214750542299353E-2</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="34">
         <v>780</v>
       </c>
-      <c r="J19" s="48">
+      <c r="J19" s="38">
         <f t="shared" ref="J19" si="30">I19/I$47</f>
         <v>6.6683765067966139E-2</v>
       </c>
-      <c r="K19" s="44">
+      <c r="K19" s="34">
         <v>1</v>
       </c>
-      <c r="L19" s="48">
+      <c r="L19" s="38">
         <f t="shared" ref="L19" si="31">K19/K$47</f>
         <v>1.1918951132300357E-3</v>
       </c>
-      <c r="M19" s="44">
+      <c r="M19" s="34">
         <v>111</v>
       </c>
-      <c r="N19" s="48">
+      <c r="N19" s="38">
         <f t="shared" ref="N19" si="32">M19/M$47</f>
         <v>9.7027972027972031E-2</v>
       </c>
-      <c r="O19" s="44">
+      <c r="O19" s="34">
         <f>9+57+9</f>
         <v>75</v>
       </c>
-      <c r="P19" s="48">
+      <c r="P19" s="38">
         <f t="shared" ref="P19" si="33">O19/O$47</f>
         <v>6.5467877094972067E-3</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="Q19" s="34">
         <v>558</v>
       </c>
-      <c r="R19" s="48">
+      <c r="R19" s="38">
         <f t="shared" ref="R19" si="34">Q19/Q$47</f>
         <v>9.302480661509736E-3</v>
       </c>
-      <c r="S19" s="44">
+      <c r="S19" s="34">
         <v>110</v>
       </c>
-      <c r="T19" s="48">
+      <c r="T19" s="38">
         <f t="shared" ref="T19" si="35">S19/S$47</f>
         <v>1.5951276102088168E-2</v>
       </c>
-      <c r="U19" s="44">
+      <c r="U19" s="34">
         <v>157</v>
       </c>
-      <c r="V19" s="48">
+      <c r="V19" s="38">
         <f t="shared" ref="V19" si="36">U19/U$47</f>
         <v>0.10254735467015023</v>
       </c>
       <c r="W19">
         <v>4</v>
       </c>
-      <c r="X19" s="48">
+      <c r="X19" s="38">
         <f t="shared" ref="X19" si="37">W19/W$47</f>
         <v>2.0504408447816281E-4</v>
       </c>
@@ -6658,85 +6658,85 @@
       <c r="A20" t="s">
         <v>299</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="32">
         <f t="shared" si="0"/>
         <v>0.23546853473931445</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="34">
         <v>1023</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="38">
         <f t="shared" si="1"/>
         <v>0.21586832665119224</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="36">
         <v>1903322</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="38">
         <f t="shared" si="1"/>
         <v>0.86437235747989305</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="34">
         <v>681</v>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="38">
         <f t="shared" ref="H20" si="38">G20/G$47</f>
         <v>0.36930585683297179</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="34">
         <v>1040</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="38">
         <f t="shared" ref="J20" si="39">I20/I$47</f>
         <v>8.8911686757288194E-2</v>
       </c>
-      <c r="K20" s="44">
+      <c r="K20" s="34">
         <f>145+80</f>
         <v>225</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="38">
         <f t="shared" ref="L20" si="40">K20/K$47</f>
         <v>0.26817640047675806</v>
       </c>
-      <c r="M20" s="44">
+      <c r="M20" s="34">
         <v>47</v>
       </c>
-      <c r="N20" s="48">
+      <c r="N20" s="38">
         <f t="shared" ref="N20" si="41">M20/M$47</f>
         <v>4.1083916083916081E-2</v>
       </c>
-      <c r="O20" s="44">
+      <c r="O20" s="34">
         <v>2012</v>
       </c>
-      <c r="P20" s="48">
+      <c r="P20" s="38">
         <f t="shared" ref="P20" si="42">O20/O$47</f>
         <v>0.17562849162011174</v>
       </c>
-      <c r="Q20" s="44">
+      <c r="Q20" s="34">
         <v>13846</v>
       </c>
-      <c r="R20" s="48">
+      <c r="R20" s="38">
         <f t="shared" ref="R20" si="43">Q20/Q$47</f>
         <v>0.23082822085889571</v>
       </c>
-      <c r="S20" s="44">
+      <c r="S20" s="34">
         <v>1080</v>
       </c>
-      <c r="T20" s="48">
+      <c r="T20" s="38">
         <f t="shared" ref="T20" si="44">S20/S$47</f>
         <v>0.15661252900232017</v>
       </c>
-      <c r="U20" s="44">
+      <c r="U20" s="34">
         <v>147</v>
       </c>
-      <c r="V20" s="48">
+      <c r="V20" s="38">
         <f t="shared" ref="V20" si="45">U20/U$47</f>
         <v>9.601567602873938E-2</v>
       </c>
       <c r="W20">
         <v>1626</v>
       </c>
-      <c r="X20" s="48">
+      <c r="X20" s="38">
         <f t="shared" ref="X20" si="46">W20/W$47</f>
         <v>8.3350420340373182E-2</v>
       </c>
@@ -6745,79 +6745,79 @@
       <c r="A21" t="s">
         <v>300</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="32">
         <f t="shared" si="0"/>
         <v>4.5350186580296421E-3</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="34">
         <v>76</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="38">
         <f t="shared" si="1"/>
         <v>1.6037138636843216E-2</v>
       </c>
-      <c r="F21" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="44">
+      <c r="F21" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="34">
         <v>19</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H21" s="38">
         <f t="shared" ref="H21" si="47">G21/G$47</f>
         <v>1.0303687635574838E-2</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="34">
         <v>15</v>
       </c>
-      <c r="J21" s="48">
+      <c r="J21" s="38">
         <f t="shared" ref="J21" si="48">I21/I$47</f>
         <v>1.2823800974608873E-3</v>
       </c>
-      <c r="K21" s="44">
-        <v>0</v>
-      </c>
-      <c r="L21" s="48">
+      <c r="K21" s="34">
+        <v>0</v>
+      </c>
+      <c r="L21" s="38">
         <f t="shared" ref="L21" si="49">K21/K$47</f>
         <v>0</v>
       </c>
-      <c r="M21" s="44">
+      <c r="M21" s="34">
         <v>2</v>
       </c>
-      <c r="N21" s="48">
+      <c r="N21" s="38">
         <f t="shared" ref="N21" si="50">M21/M$47</f>
         <v>1.7482517482517483E-3</v>
       </c>
-      <c r="O21" s="44">
-        <v>0</v>
-      </c>
-      <c r="P21" s="48">
+      <c r="O21" s="34">
+        <v>0</v>
+      </c>
+      <c r="P21" s="38">
         <f t="shared" ref="P21" si="51">O21/O$47</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="44">
+      <c r="Q21" s="34">
         <v>6</v>
       </c>
-      <c r="R21" s="48">
+      <c r="R21" s="38">
         <f t="shared" ref="R21" si="52">Q21/Q$47</f>
         <v>1.0002667377967459E-4</v>
       </c>
-      <c r="S21" s="44">
+      <c r="S21" s="34">
         <v>98</v>
       </c>
-      <c r="T21" s="48">
+      <c r="T21" s="38">
         <f t="shared" ref="T21" si="53">S21/S$47</f>
         <v>1.4211136890951276E-2</v>
       </c>
-      <c r="U21" s="44"/>
-      <c r="V21" s="48">
+      <c r="U21" s="34"/>
+      <c r="V21" s="38">
         <f t="shared" ref="V21" si="54">U21/U$47</f>
         <v>0</v>
       </c>
       <c r="W21">
         <v>121</v>
       </c>
-      <c r="X21" s="48">
+      <c r="X21" s="38">
         <f t="shared" ref="X21" si="55">W21/W$47</f>
         <v>6.2025835554644247E-3</v>
       </c>
@@ -6826,82 +6826,82 @@
       <c r="A22" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="42">
+      <c r="B22" s="32">
         <f t="shared" si="0"/>
         <v>2.4771672752547692E-2</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="34">
         <v>56</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="38">
         <f t="shared" si="1"/>
         <v>1.1816838995568686E-2</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="34">
         <v>100</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="38">
         <f t="shared" si="1"/>
         <v>4.5413879389819116E-5</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="34">
         <v>6</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="38">
         <f t="shared" ref="H22" si="56">G22/G$47</f>
         <v>3.2537960954446853E-3</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="34">
         <v>530</v>
       </c>
-      <c r="J22" s="48">
+      <c r="J22" s="38">
         <f t="shared" ref="J22" si="57">I22/I$47</f>
         <v>4.5310763443618021E-2</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="34">
         <v>104</v>
       </c>
-      <c r="L22" s="48">
+      <c r="L22" s="38">
         <f t="shared" ref="L22" si="58">K22/K$47</f>
         <v>0.12395709177592372</v>
       </c>
-      <c r="M22" s="44">
+      <c r="M22" s="34">
         <v>5</v>
       </c>
-      <c r="N22" s="48">
+      <c r="N22" s="38">
         <f t="shared" ref="N22" si="59">M22/M$47</f>
         <v>4.370629370629371E-3</v>
       </c>
-      <c r="O22" s="44">
-        <v>0</v>
-      </c>
-      <c r="P22" s="48">
+      <c r="O22" s="34">
+        <v>0</v>
+      </c>
+      <c r="P22" s="38">
         <f t="shared" ref="P22" si="60">O22/O$47</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="44">
+      <c r="Q22" s="34">
         <v>3250</v>
       </c>
-      <c r="R22" s="48">
+      <c r="R22" s="38">
         <f t="shared" ref="R22" si="61">Q22/Q$47</f>
         <v>5.4181114963990397E-2</v>
       </c>
-      <c r="S22" s="44">
+      <c r="S22" s="34">
         <v>184</v>
       </c>
-      <c r="T22" s="48">
+      <c r="T22" s="38">
         <f t="shared" ref="T22" si="62">S22/S$47</f>
         <v>2.668213457076566E-2</v>
       </c>
-      <c r="U22" s="44"/>
-      <c r="V22" s="48">
+      <c r="U22" s="34"/>
+      <c r="V22" s="38">
         <f t="shared" ref="V22" si="63">U22/U$47</f>
         <v>0</v>
       </c>
       <c r="W22">
         <v>56</v>
       </c>
-      <c r="X22" s="48">
+      <c r="X22" s="38">
         <f t="shared" ref="X22" si="64">W22/W$47</f>
         <v>2.8706171826942792E-3</v>
       </c>
@@ -6910,84 +6910,84 @@
       <c r="A23" t="s">
         <v>302</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="32">
         <f t="shared" si="0"/>
         <v>3.3101175619379662E-2</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="34">
         <v>33</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="38">
         <f t="shared" si="1"/>
         <v>6.9634944081029757E-3</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="34">
         <v>8573</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="38">
         <f t="shared" si="1"/>
         <v>3.8933318800891928E-3</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="34">
         <v>22</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="38">
         <f t="shared" ref="H23" si="65">G23/G$47</f>
         <v>1.193058568329718E-2</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="34">
         <v>130</v>
       </c>
-      <c r="J23" s="48">
+      <c r="J23" s="38">
         <f t="shared" ref="J23" si="66">I23/I$47</f>
         <v>1.1113960844661024E-2</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="34">
         <v>20</v>
       </c>
-      <c r="L23" s="48">
+      <c r="L23" s="38">
         <f t="shared" ref="L23" si="67">K23/K$47</f>
         <v>2.3837902264600714E-2</v>
       </c>
-      <c r="M23" s="44">
+      <c r="M23" s="34">
         <v>29</v>
       </c>
-      <c r="N23" s="48">
+      <c r="N23" s="38">
         <f t="shared" ref="N23" si="68">M23/M$47</f>
         <v>2.5349650349650348E-2</v>
       </c>
-      <c r="O23" s="44">
+      <c r="O23" s="34">
         <v>175</v>
       </c>
-      <c r="P23" s="48">
+      <c r="P23" s="38">
         <f t="shared" ref="P23" si="69">O23/O$47</f>
         <v>1.5275837988826816E-2</v>
       </c>
-      <c r="Q23" s="44">
+      <c r="Q23" s="34">
         <v>2946</v>
       </c>
-      <c r="R23" s="48">
+      <c r="R23" s="38">
         <f t="shared" ref="R23" si="70">Q23/Q$47</f>
         <v>4.911309682582022E-2</v>
       </c>
-      <c r="S23" s="44">
+      <c r="S23" s="34">
         <v>164</v>
       </c>
-      <c r="T23" s="48">
+      <c r="T23" s="38">
         <f t="shared" ref="T23" si="71">S23/S$47</f>
         <v>2.3781902552204175E-2</v>
       </c>
       <c r="U23">
         <v>290</v>
       </c>
-      <c r="V23" s="48">
+      <c r="V23" s="38">
         <f t="shared" ref="V23" si="72">U23/U$47</f>
         <v>0.18941868060091444</v>
       </c>
       <c r="W23">
         <v>67</v>
       </c>
-      <c r="X23" s="48">
+      <c r="X23" s="38">
         <f t="shared" ref="X23" si="73">W23/W$47</f>
         <v>3.4344884150092269E-3</v>
       </c>
@@ -6996,82 +6996,82 @@
       <c r="A24" t="s">
         <v>303</v>
       </c>
-      <c r="B24" s="42">
+      <c r="B24" s="32">
         <f t="shared" si="0"/>
         <v>4.5898506591226955E-2</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="34">
         <v>24</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="38">
         <f t="shared" si="1"/>
         <v>5.0643595695294367E-3</v>
       </c>
-      <c r="F24" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="44">
+      <c r="F24" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="34">
         <v>7</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="38">
         <f t="shared" ref="H24" si="74">G24/G$47</f>
         <v>3.7960954446854662E-3</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="34">
         <v>1100</v>
       </c>
-      <c r="J24" s="48">
+      <c r="J24" s="38">
         <f t="shared" ref="J24" si="75">I24/I$47</f>
         <v>9.4041207147131739E-2</v>
       </c>
-      <c r="K24" s="44">
+      <c r="K24" s="34">
         <v>76</v>
       </c>
-      <c r="L24" s="48">
+      <c r="L24" s="38">
         <f t="shared" ref="L24" si="76">K24/K$47</f>
         <v>9.0584028605482717E-2</v>
       </c>
-      <c r="M24" s="44">
+      <c r="M24" s="34">
         <v>157</v>
       </c>
-      <c r="N24" s="48">
+      <c r="N24" s="38">
         <f t="shared" ref="N24" si="77">M24/M$47</f>
         <v>0.13723776223776224</v>
       </c>
-      <c r="O24" s="44">
+      <c r="O24" s="34">
         <v>3</v>
       </c>
-      <c r="P24" s="48">
+      <c r="P24" s="38">
         <f t="shared" ref="P24" si="78">O24/O$47</f>
         <v>2.6187150837988826E-4</v>
       </c>
-      <c r="Q24" s="44">
+      <c r="Q24" s="34">
         <v>1684</v>
       </c>
-      <c r="R24" s="48">
+      <c r="R24" s="38">
         <f t="shared" ref="R24" si="79">Q24/Q$47</f>
         <v>2.8074153107495333E-2</v>
       </c>
-      <c r="S24" s="44">
+      <c r="S24" s="34">
         <v>100</v>
       </c>
-      <c r="T24" s="48">
+      <c r="T24" s="38">
         <f t="shared" ref="T24" si="80">S24/S$47</f>
         <v>1.4501160092807424E-2</v>
       </c>
-      <c r="U24" s="44">
+      <c r="U24" s="34">
         <f>67+77</f>
         <v>144</v>
       </c>
-      <c r="V24" s="48">
+      <c r="V24" s="38">
         <f t="shared" ref="V24" si="81">U24/U$47</f>
         <v>9.4056172436316129E-2</v>
       </c>
       <c r="W24">
         <v>727</v>
       </c>
-      <c r="X24" s="48">
+      <c r="X24" s="38">
         <f t="shared" ref="X24" si="82">W24/W$47</f>
         <v>3.7266762353906087E-2</v>
       </c>
@@ -7080,82 +7080,82 @@
       <c r="A25" t="s">
         <v>304</v>
       </c>
-      <c r="B25" s="42">
+      <c r="B25" s="32">
         <f t="shared" si="0"/>
         <v>8.5861360434867418E-2</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="34">
         <v>418</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="38">
         <f t="shared" si="1"/>
         <v>8.8204262502637687E-2</v>
       </c>
-      <c r="F25" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="44">
+      <c r="F25" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="34">
         <v>14</v>
       </c>
-      <c r="H25" s="48">
+      <c r="H25" s="38">
         <f t="shared" ref="H25" si="83">G25/G$47</f>
         <v>7.5921908893709323E-3</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="34">
         <v>400</v>
       </c>
-      <c r="J25" s="48">
+      <c r="J25" s="38">
         <f t="shared" ref="J25" si="84">I25/I$47</f>
         <v>3.4196802598957E-2</v>
       </c>
-      <c r="K25" s="44">
-        <v>0</v>
-      </c>
-      <c r="L25" s="48">
+      <c r="K25" s="34">
+        <v>0</v>
+      </c>
+      <c r="L25" s="38">
         <f t="shared" ref="L25" si="85">K25/K$47</f>
         <v>0</v>
       </c>
-      <c r="M25" s="44">
+      <c r="M25" s="34">
         <v>99</v>
       </c>
-      <c r="N25" s="48">
+      <c r="N25" s="38">
         <f t="shared" ref="N25" si="86">M25/M$47</f>
         <v>8.6538461538461536E-2</v>
       </c>
-      <c r="O25" s="44">
+      <c r="O25" s="34">
         <f>67+353</f>
         <v>420</v>
       </c>
-      <c r="P25" s="48">
+      <c r="P25" s="38">
         <f t="shared" ref="P25" si="87">O25/O$47</f>
         <v>3.6662011173184357E-2</v>
       </c>
-      <c r="Q25" s="44">
+      <c r="Q25" s="34">
         <v>9453</v>
       </c>
-      <c r="R25" s="48">
+      <c r="R25" s="38">
         <f t="shared" ref="R25" si="88">Q25/Q$47</f>
         <v>0.15759202453987731</v>
       </c>
-      <c r="S25" s="44">
+      <c r="S25" s="34">
         <v>1010</v>
       </c>
-      <c r="T25" s="48">
+      <c r="T25" s="38">
         <f t="shared" ref="T25" si="89">S25/S$47</f>
         <v>0.14646171693735499</v>
       </c>
-      <c r="U25" s="44">
+      <c r="U25" s="34">
         <v>27</v>
       </c>
-      <c r="V25" s="48">
+      <c r="V25" s="38">
         <f t="shared" ref="V25" si="90">U25/U$47</f>
         <v>1.7635532331809273E-2</v>
       </c>
       <c r="W25">
         <v>7210</v>
       </c>
-      <c r="X25" s="48">
+      <c r="X25" s="38">
         <f t="shared" ref="X25" si="91">W25/W$47</f>
         <v>0.36959196227188845</v>
       </c>
@@ -7164,81 +7164,81 @@
       <c r="A26" t="s">
         <v>305</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="32">
         <f t="shared" si="0"/>
         <v>3.9572447987347603E-2</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="34">
         <v>114</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="38">
         <f t="shared" si="1"/>
         <v>2.4055707955264825E-2</v>
       </c>
-      <c r="F26" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="44">
+      <c r="F26" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="34">
         <v>149</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="38">
         <f t="shared" ref="H26" si="92">G26/G$47</f>
         <v>8.080260303687635E-2</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="34">
         <v>1020</v>
       </c>
-      <c r="J26" s="48">
+      <c r="J26" s="38">
         <f t="shared" ref="J26" si="93">I26/I$47</f>
         <v>8.7201846627340346E-2</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="34">
         <v>22</v>
       </c>
-      <c r="L26" s="48">
+      <c r="L26" s="38">
         <f t="shared" ref="L26" si="94">K26/K$47</f>
         <v>2.6221692491060787E-2</v>
       </c>
-      <c r="M26" s="44">
+      <c r="M26" s="34">
         <v>115</v>
       </c>
-      <c r="N26" s="48">
+      <c r="N26" s="38">
         <f t="shared" ref="N26" si="95">M26/M$47</f>
         <v>0.10052447552447552</v>
       </c>
-      <c r="O26" s="44">
-        <v>0</v>
-      </c>
-      <c r="P26" s="48">
+      <c r="O26" s="34">
+        <v>0</v>
+      </c>
+      <c r="P26" s="38">
         <f t="shared" ref="P26" si="96">O26/O$47</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="44">
+      <c r="Q26" s="34">
         <v>640</v>
       </c>
-      <c r="R26" s="48">
+      <c r="R26" s="38">
         <f t="shared" ref="R26" si="97">Q26/Q$47</f>
         <v>1.0669511869831956E-2</v>
       </c>
-      <c r="S26" s="44">
+      <c r="S26" s="34">
         <v>194</v>
       </c>
-      <c r="T26" s="48">
+      <c r="T26" s="38">
         <f t="shared" ref="T26" si="98">S26/S$47</f>
         <v>2.8132250580046404E-2</v>
       </c>
-      <c r="U26" s="44">
+      <c r="U26" s="34">
         <v>87</v>
       </c>
-      <c r="V26" s="48">
+      <c r="V26" s="38">
         <f t="shared" ref="V26" si="99">U26/U$47</f>
         <v>5.6825604180274332E-2</v>
       </c>
       <c r="W26">
         <v>407</v>
       </c>
-      <c r="X26" s="48">
+      <c r="X26" s="38">
         <f t="shared" ref="X26" si="100">W26/W$47</f>
         <v>2.0863235595653066E-2</v>
       </c>
@@ -7247,85 +7247,85 @@
       <c r="A27" t="s">
         <v>306</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="32">
         <f t="shared" si="0"/>
         <v>1.084878110672325E-2</v>
       </c>
-      <c r="C27" s="44">
-        <v>0</v>
-      </c>
-      <c r="D27" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="44">
+      <c r="C27" s="34">
+        <v>0</v>
+      </c>
+      <c r="D27" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="34">
         <v>113</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="38">
         <f t="shared" si="1"/>
         <v>5.1317683710495599E-5</v>
       </c>
-      <c r="G27" s="44">
-        <v>0</v>
-      </c>
-      <c r="H27" s="48">
+      <c r="G27" s="34">
+        <v>0</v>
+      </c>
+      <c r="H27" s="38">
         <f t="shared" ref="H27" si="101">G27/G$47</f>
         <v>0</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="34">
         <v>170</v>
       </c>
-      <c r="J27" s="48">
+      <c r="J27" s="38">
         <f t="shared" ref="J27" si="102">I27/I$47</f>
         <v>1.4533641104556724E-2</v>
       </c>
-      <c r="K27" s="44">
+      <c r="K27" s="34">
         <v>15</v>
       </c>
-      <c r="L27" s="48">
+      <c r="L27" s="38">
         <f t="shared" ref="L27" si="103">K27/K$47</f>
         <v>1.7878426698450536E-2</v>
       </c>
-      <c r="M27" s="44">
+      <c r="M27" s="34">
         <v>1</v>
       </c>
-      <c r="N27" s="48">
+      <c r="N27" s="38">
         <f t="shared" ref="N27" si="104">M27/M$47</f>
         <v>8.7412587412587413E-4</v>
       </c>
-      <c r="O27" s="44">
+      <c r="O27" s="34">
         <f>164+156</f>
         <v>320</v>
       </c>
-      <c r="P27" s="48">
+      <c r="P27" s="38">
         <f t="shared" ref="P27" si="105">O27/O$47</f>
         <v>2.7932960893854747E-2</v>
       </c>
-      <c r="Q27" s="44">
+      <c r="Q27" s="34">
         <v>594</v>
       </c>
-      <c r="R27" s="48">
+      <c r="R27" s="38">
         <f t="shared" ref="R27" si="106">Q27/Q$47</f>
         <v>9.9026407041877835E-3</v>
       </c>
-      <c r="S27" s="44">
+      <c r="S27" s="34">
         <v>60</v>
       </c>
-      <c r="T27" s="48">
+      <c r="T27" s="38">
         <f t="shared" ref="T27" si="107">S27/S$47</f>
         <v>8.7006960556844544E-3</v>
       </c>
-      <c r="U27" s="44">
+      <c r="U27" s="34">
         <v>20</v>
       </c>
-      <c r="V27" s="48">
+      <c r="V27" s="38">
         <f t="shared" ref="V27" si="108">U27/U$47</f>
         <v>1.3063357282821686E-2</v>
       </c>
       <c r="W27">
         <v>515</v>
       </c>
-      <c r="X27" s="48">
+      <c r="X27" s="38">
         <f t="shared" ref="X27" si="109">W27/W$47</f>
         <v>2.6399425876563461E-2</v>
       </c>
@@ -7334,46 +7334,46 @@
       <c r="A28" t="s">
         <v>307</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="32">
         <f t="shared" si="0"/>
         <v>5.9505357788689268E-2</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="34">
         <v>655</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="38">
         <f t="shared" si="1"/>
         <v>0.13821481325174087</v>
       </c>
-      <c r="F28" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="44">
+      <c r="F28" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="34">
         <v>102</v>
       </c>
-      <c r="H28" s="48">
+      <c r="H28" s="38">
         <f t="shared" ref="H28" si="110">G28/G$47</f>
         <v>5.5314533622559656E-2</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="34">
         <v>35</v>
       </c>
-      <c r="J28" s="48">
+      <c r="J28" s="38">
         <f t="shared" ref="J28" si="111">I28/I$47</f>
         <v>2.9922202274087371E-3</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K28" s="34">
         <v>5</v>
       </c>
-      <c r="L28" s="48">
+      <c r="L28" s="38">
         <f t="shared" ref="L28" si="112">K28/K$47</f>
         <v>5.9594755661501785E-3</v>
       </c>
-      <c r="M28" s="44">
+      <c r="M28" s="34">
         <v>111</v>
       </c>
-      <c r="N28" s="48">
+      <c r="N28" s="38">
         <f t="shared" ref="N28" si="113">M28/M$47</f>
         <v>9.7027972027972031E-2</v>
       </c>
@@ -7381,35 +7381,35 @@
         <f>195+15+46</f>
         <v>256</v>
       </c>
-      <c r="P28" s="48">
+      <c r="P28" s="38">
         <f t="shared" ref="P28" si="114">O28/O$47</f>
         <v>2.23463687150838E-2</v>
       </c>
-      <c r="Q28" s="44">
+      <c r="Q28" s="34">
         <v>7459</v>
       </c>
-      <c r="R28" s="48">
+      <c r="R28" s="38">
         <f t="shared" ref="R28" si="115">Q28/Q$47</f>
         <v>0.12434982662043212</v>
       </c>
-      <c r="S28" s="44">
+      <c r="S28" s="34">
         <v>971</v>
       </c>
-      <c r="T28" s="48">
+      <c r="T28" s="38">
         <f t="shared" ref="T28" si="116">S28/S$47</f>
         <v>0.1408062645011601</v>
       </c>
-      <c r="U28" s="44">
+      <c r="U28" s="34">
         <v>98</v>
       </c>
-      <c r="V28" s="48">
+      <c r="V28" s="38">
         <f t="shared" ref="V28" si="117">U28/U$47</f>
         <v>6.4010450685826253E-2</v>
       </c>
       <c r="W28">
         <v>69</v>
       </c>
-      <c r="X28" s="48">
+      <c r="X28" s="38">
         <f t="shared" ref="X28" si="118">W28/W$47</f>
         <v>3.5370104572483084E-3</v>
       </c>
@@ -7418,75 +7418,75 @@
       <c r="A29" t="s">
         <v>308</v>
       </c>
-      <c r="B29" s="42">
+      <c r="B29" s="32">
         <f t="shared" si="0"/>
         <v>2.1753780517885676E-2</v>
       </c>
-      <c r="C29" s="44">
-        <v>0</v>
-      </c>
-      <c r="D29" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="44">
+      <c r="C29" s="34">
+        <v>0</v>
+      </c>
+      <c r="D29" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="34">
         <v>69</v>
       </c>
-      <c r="H29" s="48">
+      <c r="H29" s="38">
         <f t="shared" ref="H29" si="119">G29/G$47</f>
         <v>3.7418655097613884E-2</v>
       </c>
-      <c r="I29" s="44">
+      <c r="I29" s="34">
         <v>304</v>
       </c>
-      <c r="J29" s="48">
+      <c r="J29" s="38">
         <f t="shared" ref="J29" si="120">I29/I$47</f>
         <v>2.5989569975207318E-2</v>
       </c>
-      <c r="K29" s="44">
-        <v>0</v>
-      </c>
-      <c r="L29" s="48">
+      <c r="K29" s="34">
+        <v>0</v>
+      </c>
+      <c r="L29" s="38">
         <f t="shared" ref="L29" si="121">K29/K$47</f>
         <v>0</v>
       </c>
-      <c r="M29" s="44">
+      <c r="M29" s="34">
         <v>157</v>
       </c>
-      <c r="N29" s="48">
+      <c r="N29" s="38">
         <f t="shared" ref="N29" si="122">M29/M$47</f>
         <v>0.13723776223776224</v>
       </c>
-      <c r="O29" s="44">
+      <c r="O29" s="34">
         <v>3</v>
       </c>
-      <c r="P29" s="48">
+      <c r="P29" s="38">
         <f t="shared" ref="P29" si="123">O29/O$47</f>
         <v>2.6187150837988826E-4</v>
       </c>
-      <c r="Q29" s="44">
+      <c r="Q29" s="34">
         <v>67</v>
       </c>
-      <c r="R29" s="48">
+      <c r="R29" s="38">
         <f t="shared" ref="R29" si="124">Q29/Q$47</f>
         <v>1.1169645238730329E-3</v>
       </c>
-      <c r="T29" s="48">
+      <c r="T29" s="38">
         <f t="shared" ref="T29" si="125">S29/S$47</f>
         <v>0</v>
       </c>
-      <c r="V29" s="48">
+      <c r="V29" s="38">
         <f t="shared" ref="V29" si="126">U29/U$47</f>
         <v>0</v>
       </c>
       <c r="W29">
         <v>727</v>
       </c>
-      <c r="X29" s="48">
+      <c r="X29" s="38">
         <f t="shared" ref="X29" si="127">W29/W$47</f>
         <v>3.7266762353906087E-2</v>
       </c>
@@ -7495,84 +7495,84 @@
       <c r="A30" t="s">
         <v>309</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="32">
         <f t="shared" si="0"/>
         <v>2.6591548091418483E-2</v>
       </c>
-      <c r="C30" s="44">
+      <c r="C30" s="34">
         <v>82</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="38">
         <f t="shared" si="1"/>
         <v>1.7303228529225573E-2</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="34">
         <v>43</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="38">
         <f t="shared" si="1"/>
         <v>1.9527968137622219E-5</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="34">
         <v>183</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H30" s="38">
         <f t="shared" ref="H30" si="128">G30/G$47</f>
         <v>9.9240780911062906E-2</v>
       </c>
-      <c r="I30" s="44">
+      <c r="I30" s="34">
         <v>437</v>
       </c>
-      <c r="J30" s="48">
+      <c r="J30" s="38">
         <f t="shared" ref="J30" si="129">I30/I$47</f>
         <v>3.736000683936052E-2</v>
       </c>
-      <c r="K30" s="44">
+      <c r="K30" s="34">
         <v>10</v>
       </c>
-      <c r="L30" s="48">
+      <c r="L30" s="38">
         <f t="shared" ref="L30" si="130">K30/K$47</f>
         <v>1.1918951132300357E-2</v>
       </c>
-      <c r="M30" s="44">
+      <c r="M30" s="34">
         <v>12</v>
       </c>
-      <c r="N30" s="48">
+      <c r="N30" s="38">
         <f t="shared" ref="N30" si="131">M30/M$47</f>
         <v>1.048951048951049E-2</v>
       </c>
-      <c r="O30" s="44">
+      <c r="O30" s="34">
         <v>164</v>
       </c>
-      <c r="P30" s="48">
+      <c r="P30" s="38">
         <f t="shared" ref="P30" si="132">O30/O$47</f>
         <v>1.4315642458100559E-2</v>
       </c>
-      <c r="Q30" s="44">
+      <c r="Q30" s="34">
         <v>75</v>
       </c>
-      <c r="R30" s="48">
+      <c r="R30" s="38">
         <f t="shared" ref="R30" si="133">Q30/Q$47</f>
         <v>1.2503334222459322E-3</v>
       </c>
-      <c r="S30" s="44">
+      <c r="S30" s="34">
         <v>243</v>
       </c>
-      <c r="T30" s="48">
+      <c r="T30" s="38">
         <f t="shared" ref="T30" si="134">S30/S$47</f>
         <v>3.5237819025522039E-2</v>
       </c>
-      <c r="U30" s="44">
+      <c r="U30" s="34">
         <v>61</v>
       </c>
-      <c r="V30" s="48">
+      <c r="V30" s="38">
         <f t="shared" ref="V30" si="135">U30/U$47</f>
         <v>3.9843239712606136E-2</v>
       </c>
       <c r="W30">
         <v>498</v>
       </c>
-      <c r="X30" s="48">
+      <c r="X30" s="38">
         <f t="shared" ref="X30" si="136">W30/W$47</f>
         <v>2.5527988517531269E-2</v>
       </c>
@@ -7581,79 +7581,79 @@
       <c r="A31" t="s">
         <v>310</v>
       </c>
-      <c r="B31" s="42">
+      <c r="B31" s="32">
         <f t="shared" si="0"/>
         <v>3.3663377036675213E-2</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="34">
         <v>602</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="38">
         <f t="shared" si="1"/>
         <v>0.12703101920236337</v>
       </c>
-      <c r="F31" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="44">
+      <c r="F31" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="34">
         <v>55</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="38">
         <f t="shared" ref="H31" si="137">G31/G$47</f>
         <v>2.9826464208242951E-2</v>
       </c>
-      <c r="I31" s="44">
+      <c r="I31" s="34">
         <v>40</v>
       </c>
-      <c r="J31" s="48">
+      <c r="J31" s="38">
         <f t="shared" ref="J31" si="138">I31/I$47</f>
         <v>3.4196802598956996E-3</v>
       </c>
-      <c r="K31" s="44">
+      <c r="K31" s="34">
         <v>130</v>
       </c>
-      <c r="L31" s="48">
+      <c r="L31" s="38">
         <f t="shared" ref="L31" si="139">K31/K$47</f>
         <v>0.15494636471990464</v>
       </c>
-      <c r="M31" s="44">
-        <v>0</v>
-      </c>
-      <c r="N31" s="48">
+      <c r="M31" s="34">
+        <v>0</v>
+      </c>
+      <c r="N31" s="38">
         <f t="shared" ref="N31" si="140">M31/M$47</f>
         <v>0</v>
       </c>
-      <c r="O31" s="44">
-        <v>0</v>
-      </c>
-      <c r="P31" s="48">
+      <c r="O31" s="34">
+        <v>0</v>
+      </c>
+      <c r="P31" s="38">
         <f t="shared" ref="P31" si="141">O31/O$47</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="44">
+      <c r="Q31" s="34">
         <v>2425</v>
       </c>
-      <c r="R31" s="48">
+      <c r="R31" s="38">
         <f t="shared" ref="R31" si="142">Q31/Q$47</f>
         <v>4.0427447319285145E-2</v>
       </c>
-      <c r="S31" s="44">
+      <c r="S31" s="34">
         <v>101</v>
       </c>
-      <c r="T31" s="48">
+      <c r="T31" s="38">
         <f t="shared" ref="T31" si="143">S31/S$47</f>
         <v>1.4646171693735499E-2</v>
       </c>
-      <c r="U31" s="44"/>
-      <c r="V31" s="48">
+      <c r="U31" s="34"/>
+      <c r="V31" s="38">
         <f t="shared" ref="V31" si="144">U31/U$47</f>
         <v>0</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
-      <c r="X31" s="48">
+      <c r="X31" s="38">
         <f t="shared" ref="X31" si="145">W31/W$47</f>
         <v>0</v>
       </c>
@@ -7662,84 +7662,84 @@
       <c r="A32" t="s">
         <v>311</v>
       </c>
-      <c r="B32" s="42">
+      <c r="B32" s="32">
         <f t="shared" si="0"/>
         <v>9.2815731684324655E-3</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="34">
         <v>22</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="38">
         <f t="shared" si="1"/>
         <v>4.6423296054019835E-3</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="34">
         <v>56503</v>
       </c>
-      <c r="F32" s="48">
+      <c r="F32" s="38">
         <f t="shared" si="1"/>
         <v>2.5660204271629496E-2</v>
       </c>
-      <c r="G32" s="44">
+      <c r="G32" s="34">
         <v>26</v>
       </c>
-      <c r="H32" s="48">
+      <c r="H32" s="38">
         <f t="shared" ref="H32" si="146">G32/G$47</f>
         <v>1.4099783080260303E-2</v>
       </c>
-      <c r="I32" s="44">
+      <c r="I32" s="34">
         <v>50</v>
       </c>
-      <c r="J32" s="48">
+      <c r="J32" s="38">
         <f t="shared" ref="J32" si="147">I32/I$47</f>
         <v>4.2746003248696251E-3</v>
       </c>
-      <c r="K32" s="44">
-        <v>0</v>
-      </c>
-      <c r="L32" s="48">
+      <c r="K32" s="34">
+        <v>0</v>
+      </c>
+      <c r="L32" s="38">
         <f t="shared" ref="L32" si="148">K32/K$47</f>
         <v>0</v>
       </c>
-      <c r="M32" s="44">
+      <c r="M32" s="34">
         <v>8</v>
       </c>
-      <c r="N32" s="48">
+      <c r="N32" s="38">
         <f t="shared" ref="N32" si="149">M32/M$47</f>
         <v>6.993006993006993E-3</v>
       </c>
-      <c r="O32" s="44">
+      <c r="O32" s="34">
         <v>6</v>
       </c>
-      <c r="P32" s="48">
+      <c r="P32" s="38">
         <f t="shared" ref="P32" si="150">O32/O$47</f>
         <v>5.2374301675977653E-4</v>
       </c>
-      <c r="Q32" s="44">
+      <c r="Q32" s="34">
         <v>385</v>
       </c>
-      <c r="R32" s="48">
+      <c r="R32" s="38">
         <f t="shared" ref="R32" si="151">Q32/Q$47</f>
         <v>6.4183782341957858E-3</v>
       </c>
-      <c r="S32" s="44">
+      <c r="S32" s="34">
         <v>172</v>
       </c>
-      <c r="T32" s="48">
+      <c r="T32" s="38">
         <f t="shared" ref="T32" si="152">S32/S$47</f>
         <v>2.4941995359628769E-2</v>
       </c>
-      <c r="U32" s="44">
+      <c r="U32" s="34">
         <v>5</v>
       </c>
-      <c r="V32" s="48">
+      <c r="V32" s="38">
         <f t="shared" ref="V32" si="153">U32/U$47</f>
         <v>3.2658393207054214E-3</v>
       </c>
       <c r="W32">
         <v>220</v>
       </c>
-      <c r="X32" s="48">
+      <c r="X32" s="38">
         <f t="shared" ref="X32" si="154">W32/W$47</f>
         <v>1.1277424646298955E-2</v>
       </c>
@@ -7748,72 +7748,72 @@
       <c r="A33" t="s">
         <v>312</v>
       </c>
-      <c r="B33" s="42">
+      <c r="B33" s="32">
         <f t="shared" si="0"/>
         <v>3.3696254650233608E-3</v>
       </c>
-      <c r="C33" s="44">
-        <v>0</v>
-      </c>
-      <c r="D33" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="44">
+      <c r="C33" s="34">
+        <v>0</v>
+      </c>
+      <c r="D33" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="34">
         <v>33</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33" s="38">
         <f t="shared" ref="H33" si="155">G33/G$47</f>
         <v>1.7895878524945771E-2</v>
       </c>
-      <c r="I33" s="44">
+      <c r="I33" s="34">
         <v>48</v>
       </c>
-      <c r="J33" s="48">
+      <c r="J33" s="38">
         <f t="shared" ref="J33" si="156">I33/I$47</f>
         <v>4.1036163118748394E-3</v>
       </c>
-      <c r="K33" s="44">
-        <v>0</v>
-      </c>
-      <c r="L33" s="48">
+      <c r="K33" s="34">
+        <v>0</v>
+      </c>
+      <c r="L33" s="38">
         <f t="shared" ref="L33" si="157">K33/K$47</f>
         <v>0</v>
       </c>
-      <c r="N33" s="48">
+      <c r="N33" s="38">
         <f t="shared" ref="N33" si="158">M33/M$47</f>
         <v>0</v>
       </c>
-      <c r="O33" s="44">
-        <v>0</v>
-      </c>
-      <c r="P33" s="48">
+      <c r="O33" s="34">
+        <v>0</v>
+      </c>
+      <c r="P33" s="38">
         <f t="shared" ref="P33" si="159">O33/O$47</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="44">
+      <c r="Q33" s="34">
         <v>750</v>
       </c>
-      <c r="R33" s="48">
+      <c r="R33" s="38">
         <f t="shared" ref="R33" si="160">Q33/Q$47</f>
         <v>1.2503334222459323E-2</v>
       </c>
-      <c r="T33" s="48">
+      <c r="T33" s="38">
         <f t="shared" ref="T33" si="161">S33/S$47</f>
         <v>0</v>
       </c>
-      <c r="V33" s="48">
+      <c r="V33" s="38">
         <f t="shared" ref="V33" si="162">U33/U$47</f>
         <v>0</v>
       </c>
       <c r="W33">
         <v>50</v>
       </c>
-      <c r="X33" s="48">
+      <c r="X33" s="38">
         <f t="shared" ref="X33" si="163">W33/W$47</f>
         <v>2.5630510559770349E-3</v>
       </c>
@@ -7822,79 +7822,79 @@
       <c r="A34" t="s">
         <v>313</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B34" s="32">
         <f t="shared" si="0"/>
         <v>4.1136727169704124E-2</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C34" s="34">
         <v>826</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="38">
         <f t="shared" si="1"/>
         <v>0.17429837518463812</v>
       </c>
-      <c r="F34" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="44">
+      <c r="F34" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="34">
         <v>182</v>
       </c>
-      <c r="H34" s="48">
+      <c r="H34" s="38">
         <f t="shared" ref="H34" si="164">G34/G$47</f>
         <v>9.8698481561822121E-2</v>
       </c>
-      <c r="I34" s="44">
+      <c r="I34" s="34">
         <v>900</v>
       </c>
-      <c r="J34" s="48">
+      <c r="J34" s="38">
         <f t="shared" ref="J34" si="165">I34/I$47</f>
         <v>7.6942805847653242E-2</v>
       </c>
-      <c r="K34" s="44">
-        <v>0</v>
-      </c>
-      <c r="L34" s="48">
+      <c r="K34" s="34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="38">
         <f t="shared" ref="L34" si="166">K34/K$47</f>
         <v>0</v>
       </c>
-      <c r="M34" s="44">
+      <c r="M34" s="34">
         <v>14</v>
       </c>
-      <c r="N34" s="48">
+      <c r="N34" s="38">
         <f t="shared" ref="N34" si="167">M34/M$47</f>
         <v>1.2237762237762238E-2</v>
       </c>
-      <c r="O34" s="44">
-        <v>0</v>
-      </c>
-      <c r="P34" s="48">
+      <c r="O34" s="34">
+        <v>0</v>
+      </c>
+      <c r="P34" s="38">
         <f t="shared" ref="P34" si="168">O34/O$47</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="44">
+      <c r="Q34" s="34">
         <v>1826</v>
       </c>
-      <c r="R34" s="48">
+      <c r="R34" s="38">
         <f t="shared" ref="R34" si="169">Q34/Q$47</f>
         <v>3.0441451053614298E-2</v>
       </c>
-      <c r="S34" s="44">
+      <c r="S34" s="34">
         <v>396</v>
       </c>
-      <c r="T34" s="48">
+      <c r="T34" s="38">
         <f t="shared" ref="T34" si="170">S34/S$47</f>
         <v>5.7424593967517402E-2</v>
       </c>
-      <c r="U34" s="44"/>
-      <c r="V34" s="48">
+      <c r="U34" s="34"/>
+      <c r="V34" s="38">
         <f t="shared" ref="V34" si="171">U34/U$47</f>
         <v>0</v>
       </c>
       <c r="W34">
         <v>48</v>
       </c>
-      <c r="X34" s="48">
+      <c r="X34" s="38">
         <f t="shared" ref="X34" si="172">W34/W$47</f>
         <v>2.4605290137379538E-3</v>
       </c>
@@ -7903,79 +7903,79 @@
       <c r="A35" t="s">
         <v>314</v>
       </c>
-      <c r="B35" s="42">
+      <c r="B35" s="32">
         <f t="shared" si="0"/>
         <v>5.2673129176244527E-3</v>
       </c>
-      <c r="C35" s="44">
+      <c r="C35" s="34">
         <v>30</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="38">
         <f t="shared" si="1"/>
         <v>6.3304494619117954E-3</v>
       </c>
-      <c r="E35" s="44">
+      <c r="E35" s="34">
         <v>41849</v>
       </c>
-      <c r="F35" s="48">
+      <c r="F35" s="38">
         <f t="shared" si="1"/>
         <v>1.9005254385845403E-2</v>
       </c>
-      <c r="H35" s="48">
+      <c r="H35" s="38">
         <f t="shared" ref="H35" si="173">G35/G$47</f>
         <v>0</v>
       </c>
-      <c r="I35" s="44">
+      <c r="I35" s="34">
         <v>200</v>
       </c>
-      <c r="J35" s="48">
+      <c r="J35" s="38">
         <f t="shared" ref="J35" si="174">I35/I$47</f>
         <v>1.70984012994785E-2</v>
       </c>
-      <c r="K35" s="44">
+      <c r="K35" s="34">
         <v>2</v>
       </c>
-      <c r="L35" s="48">
+      <c r="L35" s="38">
         <f t="shared" ref="L35" si="175">K35/K$47</f>
         <v>2.3837902264600714E-3</v>
       </c>
-      <c r="M35" s="44">
-        <v>0</v>
-      </c>
-      <c r="N35" s="48">
+      <c r="M35" s="34">
+        <v>0</v>
+      </c>
+      <c r="N35" s="38">
         <f t="shared" ref="N35" si="176">M35/M$47</f>
         <v>0</v>
       </c>
-      <c r="O35" s="44">
-        <v>0</v>
-      </c>
-      <c r="P35" s="48">
+      <c r="O35" s="34">
+        <v>0</v>
+      </c>
+      <c r="P35" s="38">
         <f t="shared" ref="P35" si="177">O35/O$47</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="44">
+      <c r="Q35" s="34">
         <v>191</v>
       </c>
-      <c r="R35" s="48">
+      <c r="R35" s="38">
         <f t="shared" ref="R35" si="178">Q35/Q$47</f>
         <v>3.184182448652974E-3</v>
       </c>
-      <c r="S35" s="44">
+      <c r="S35" s="34">
         <v>65</v>
       </c>
-      <c r="T35" s="48">
+      <c r="T35" s="38">
         <f t="shared" ref="T35" si="179">S35/S$47</f>
         <v>9.4257540603248265E-3</v>
       </c>
-      <c r="U35" s="44"/>
-      <c r="V35" s="48">
+      <c r="U35" s="34"/>
+      <c r="V35" s="38">
         <f t="shared" ref="V35" si="180">U35/U$47</f>
         <v>0</v>
       </c>
       <c r="W35">
         <v>10</v>
       </c>
-      <c r="X35" s="48">
+      <c r="X35" s="38">
         <f t="shared" ref="X35" si="181">W35/W$47</f>
         <v>5.1261021119540701E-4</v>
       </c>
@@ -7984,75 +7984,75 @@
       <c r="A36" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B36" s="32">
         <f t="shared" si="0"/>
         <v>3.9632061309863043E-4</v>
       </c>
-      <c r="C36" s="44">
+      <c r="C36" s="34">
         <v>3</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="38">
         <f t="shared" si="1"/>
         <v>6.3304494619117959E-4</v>
       </c>
-      <c r="F36" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="44">
+      <c r="F36" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="34">
         <v>1</v>
       </c>
-      <c r="H36" s="48">
+      <c r="H36" s="38">
         <f t="shared" ref="H36" si="182">G36/G$47</f>
         <v>5.4229934924078093E-4</v>
       </c>
-      <c r="I36" s="44">
-        <v>0</v>
-      </c>
-      <c r="J36" s="48">
+      <c r="I36" s="34">
+        <v>0</v>
+      </c>
+      <c r="J36" s="38">
         <f t="shared" ref="J36" si="183">I36/I$47</f>
         <v>0</v>
       </c>
-      <c r="K36" s="44">
-        <v>0</v>
-      </c>
-      <c r="L36" s="48">
+      <c r="K36" s="34">
+        <v>0</v>
+      </c>
+      <c r="L36" s="38">
         <f t="shared" ref="L36" si="184">K36/K$47</f>
         <v>0</v>
       </c>
-      <c r="M36" s="44">
-        <v>0</v>
-      </c>
-      <c r="N36" s="48">
+      <c r="M36" s="34">
+        <v>0</v>
+      </c>
+      <c r="N36" s="38">
         <f t="shared" ref="N36" si="185">M36/M$47</f>
         <v>0</v>
       </c>
-      <c r="O36" s="44">
-        <v>0</v>
-      </c>
-      <c r="P36" s="48">
+      <c r="O36" s="34">
+        <v>0</v>
+      </c>
+      <c r="P36" s="38">
         <f t="shared" ref="P36" si="186">O36/O$47</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="44">
+      <c r="Q36" s="34">
         <v>191</v>
       </c>
-      <c r="R36" s="48">
+      <c r="R36" s="38">
         <f t="shared" ref="R36" si="187">Q36/Q$47</f>
         <v>3.184182448652974E-3</v>
       </c>
-      <c r="T36" s="48">
+      <c r="T36" s="38">
         <f t="shared" ref="T36" si="188">S36/S$47</f>
         <v>0</v>
       </c>
-      <c r="V36" s="48">
+      <c r="V36" s="38">
         <f t="shared" ref="V36" si="189">U36/U$47</f>
         <v>0</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
-      <c r="X36" s="48">
+      <c r="X36" s="38">
         <f t="shared" ref="X36" si="190">W36/W$47</f>
         <v>0</v>
       </c>
@@ -8061,78 +8061,78 @@
       <c r="A37" t="s">
         <v>316</v>
       </c>
-      <c r="B37" s="42">
+      <c r="B37" s="32">
         <f t="shared" si="0"/>
         <v>1.9575881276408278E-2</v>
       </c>
-      <c r="C37" s="44">
+      <c r="C37" s="34">
         <v>374</v>
       </c>
-      <c r="D37" s="48">
+      <c r="D37" s="38">
         <f t="shared" si="1"/>
         <v>7.8919603291833715E-2</v>
       </c>
-      <c r="F37" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="44">
+      <c r="F37" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="34">
         <v>27</v>
       </c>
-      <c r="H37" s="48">
+      <c r="H37" s="38">
         <f t="shared" ref="H37" si="191">G37/G$47</f>
         <v>1.4642082429501085E-2</v>
       </c>
-      <c r="I37" s="44">
+      <c r="I37" s="34">
         <v>800</v>
       </c>
-      <c r="J37" s="48">
+      <c r="J37" s="38">
         <f t="shared" ref="J37" si="192">I37/I$47</f>
         <v>6.8393605197914001E-2</v>
       </c>
-      <c r="K37" s="44">
-        <v>0</v>
-      </c>
-      <c r="L37" s="48">
+      <c r="K37" s="34">
+        <v>0</v>
+      </c>
+      <c r="L37" s="38">
         <f t="shared" ref="L37" si="193">K37/K$47</f>
         <v>0</v>
       </c>
-      <c r="M37" s="44">
+      <c r="M37" s="34">
         <v>2</v>
       </c>
-      <c r="N37" s="48">
+      <c r="N37" s="38">
         <f t="shared" ref="N37" si="194">M37/M$47</f>
         <v>1.7482517482517483E-3</v>
       </c>
-      <c r="O37" s="44">
-        <v>0</v>
-      </c>
-      <c r="P37" s="48">
+      <c r="O37" s="34">
+        <v>0</v>
+      </c>
+      <c r="P37" s="38">
         <f t="shared" ref="P37" si="195">O37/O$47</f>
         <v>0</v>
       </c>
-      <c r="R37" s="48">
+      <c r="R37" s="38">
         <f t="shared" ref="R37" si="196">Q37/Q$47</f>
         <v>0</v>
       </c>
-      <c r="S37" s="44">
+      <c r="S37" s="34">
         <v>224</v>
       </c>
-      <c r="T37" s="48">
+      <c r="T37" s="38">
         <f t="shared" ref="T37" si="197">S37/S$47</f>
         <v>3.248259860788863E-2</v>
       </c>
-      <c r="U37" s="44">
+      <c r="U37" s="34">
         <v>25</v>
       </c>
-      <c r="V37" s="48">
+      <c r="V37" s="38">
         <f t="shared" ref="V37" si="198">U37/U$47</f>
         <v>1.6329196603527107E-2</v>
       </c>
       <c r="W37">
         <v>55</v>
       </c>
-      <c r="X37" s="48">
+      <c r="X37" s="38">
         <f t="shared" ref="X37" si="199">W37/W$47</f>
         <v>2.8193561615747387E-3</v>
       </c>
@@ -8141,72 +8141,72 @@
       <c r="A38" t="s">
         <v>317</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B38" s="32">
         <f t="shared" si="0"/>
         <v>9.8404203393299438E-5</v>
       </c>
-      <c r="C38" s="44">
+      <c r="C38" s="34">
         <v>4</v>
       </c>
-      <c r="D38" s="48">
+      <c r="D38" s="38">
         <f t="shared" si="1"/>
         <v>8.4405992825490608E-4</v>
       </c>
-      <c r="F38" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="48">
+      <c r="F38" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="38">
         <f t="shared" ref="H38" si="200">G38/G$47</f>
         <v>0</v>
       </c>
-      <c r="I38" s="44">
-        <v>0</v>
-      </c>
-      <c r="J38" s="48">
+      <c r="I38" s="34">
+        <v>0</v>
+      </c>
+      <c r="J38" s="38">
         <f t="shared" ref="J38" si="201">I38/I$47</f>
         <v>0</v>
       </c>
-      <c r="K38" s="44">
-        <v>0</v>
-      </c>
-      <c r="L38" s="48">
+      <c r="K38" s="34">
+        <v>0</v>
+      </c>
+      <c r="L38" s="38">
         <f t="shared" ref="L38" si="202">K38/K$47</f>
         <v>0</v>
       </c>
-      <c r="M38" s="44">
-        <v>0</v>
-      </c>
-      <c r="N38" s="48">
+      <c r="M38" s="34">
+        <v>0</v>
+      </c>
+      <c r="N38" s="38">
         <f t="shared" ref="N38" si="203">M38/M$47</f>
         <v>0</v>
       </c>
-      <c r="O38" s="44">
-        <v>0</v>
-      </c>
-      <c r="P38" s="48">
+      <c r="O38" s="34">
+        <v>0</v>
+      </c>
+      <c r="P38" s="38">
         <f t="shared" ref="P38" si="204">O38/O$47</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="44">
+      <c r="Q38" s="34">
         <v>2</v>
       </c>
-      <c r="R38" s="48">
+      <c r="R38" s="38">
         <f t="shared" ref="R38" si="205">Q38/Q$47</f>
         <v>3.3342224593224857E-5</v>
       </c>
-      <c r="T38" s="48">
+      <c r="T38" s="38">
         <f t="shared" ref="T38" si="206">S38/S$47</f>
         <v>0</v>
       </c>
-      <c r="V38" s="48">
+      <c r="V38" s="38">
         <f t="shared" ref="V38" si="207">U38/U$47</f>
         <v>0</v>
       </c>
       <c r="W38">
         <v>4</v>
       </c>
-      <c r="X38" s="48">
+      <c r="X38" s="38">
         <f t="shared" ref="X38" si="208">W38/W$47</f>
         <v>2.0504408447816281E-4</v>
       </c>
@@ -8215,81 +8215,81 @@
       <c r="A39" t="s">
         <v>318</v>
       </c>
-      <c r="B39" s="42">
+      <c r="B39" s="32">
         <f t="shared" si="0"/>
         <v>4.8099945665098544E-2</v>
       </c>
-      <c r="C39" s="44">
+      <c r="C39" s="34">
         <v>136</v>
       </c>
-      <c r="D39" s="48">
+      <c r="D39" s="38">
         <f t="shared" si="1"/>
         <v>2.8698037560666807E-2</v>
       </c>
-      <c r="F39" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="44">
+      <c r="F39" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="34">
         <v>8</v>
       </c>
-      <c r="H39" s="48">
+      <c r="H39" s="38">
         <f t="shared" ref="H39" si="209">G39/G$47</f>
         <v>4.3383947939262474E-3</v>
       </c>
-      <c r="I39" s="44">
+      <c r="I39" s="34">
         <v>1200</v>
       </c>
-      <c r="J39" s="48">
+      <c r="J39" s="38">
         <f t="shared" ref="J39" si="210">I39/I$47</f>
         <v>0.10259040779687099</v>
       </c>
-      <c r="K39" s="44">
-        <v>0</v>
-      </c>
-      <c r="L39" s="48">
+      <c r="K39" s="34">
+        <v>0</v>
+      </c>
+      <c r="L39" s="38">
         <f t="shared" ref="L39" si="211">K39/K$47</f>
         <v>0</v>
       </c>
-      <c r="M39" s="44">
+      <c r="M39" s="34">
         <v>137</v>
       </c>
-      <c r="N39" s="48">
+      <c r="N39" s="38">
         <f t="shared" ref="N39" si="212">M39/M$47</f>
         <v>0.11975524475524475</v>
       </c>
-      <c r="O39" s="44">
+      <c r="O39" s="34">
         <v>1477</v>
       </c>
-      <c r="P39" s="48">
+      <c r="P39" s="38">
         <f t="shared" ref="P39" si="213">O39/O$47</f>
         <v>0.12892807262569833</v>
       </c>
-      <c r="Q39" s="44">
+      <c r="Q39" s="34">
         <v>568</v>
       </c>
-      <c r="R39" s="48">
+      <c r="R39" s="38">
         <f t="shared" ref="R39" si="214">Q39/Q$47</f>
         <v>9.4691917844758611E-3</v>
       </c>
-      <c r="S39" s="44">
+      <c r="S39" s="34">
         <v>478</v>
       </c>
-      <c r="T39" s="48">
+      <c r="T39" s="38">
         <f t="shared" ref="T39" si="215">S39/S$47</f>
         <v>6.9315545243619492E-2</v>
       </c>
-      <c r="U39" s="44">
+      <c r="U39" s="34">
         <v>48</v>
       </c>
-      <c r="V39" s="48">
+      <c r="V39" s="38">
         <f t="shared" ref="V39" si="216">U39/U$47</f>
         <v>3.1352057478772045E-2</v>
       </c>
       <c r="W39">
         <v>676</v>
       </c>
-      <c r="X39" s="48">
+      <c r="X39" s="38">
         <f t="shared" ref="X39" si="217">W39/W$47</f>
         <v>3.4652450276809514E-2</v>
       </c>
@@ -8298,80 +8298,80 @@
       <c r="A40" t="s">
         <v>319</v>
       </c>
-      <c r="B40" s="42">
+      <c r="B40" s="32">
         <f t="shared" si="0"/>
         <v>4.9795900396539097E-2</v>
       </c>
-      <c r="C40" s="44">
+      <c r="C40" s="34">
         <v>136</v>
       </c>
-      <c r="D40" s="48">
+      <c r="D40" s="38">
         <f t="shared" si="1"/>
         <v>2.8698037560666807E-2</v>
       </c>
-      <c r="F40" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="44">
+      <c r="F40" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="34">
         <v>49</v>
       </c>
-      <c r="H40" s="48">
+      <c r="H40" s="38">
         <f t="shared" ref="H40" si="218">G40/G$47</f>
         <v>2.6572668112798264E-2</v>
       </c>
-      <c r="I40" s="44">
+      <c r="I40" s="34">
         <v>400</v>
       </c>
-      <c r="J40" s="48">
+      <c r="J40" s="38">
         <f t="shared" ref="J40" si="219">I40/I$47</f>
         <v>3.4196802598957E-2</v>
       </c>
-      <c r="K40" s="44">
+      <c r="K40" s="34">
         <v>75</v>
       </c>
-      <c r="L40" s="48">
+      <c r="L40" s="38">
         <f t="shared" ref="L40" si="220">K40/K$47</f>
         <v>8.9392133492252682E-2</v>
       </c>
-      <c r="M40" s="44">
+      <c r="M40" s="34">
         <v>30</v>
       </c>
-      <c r="N40" s="48">
+      <c r="N40" s="38">
         <f t="shared" ref="N40" si="221">M40/M$47</f>
         <v>2.6223776223776224E-2</v>
       </c>
-      <c r="O40" s="44">
+      <c r="O40" s="34">
         <f>308+48+1+658</f>
         <v>1015</v>
       </c>
-      <c r="P40" s="48">
+      <c r="P40" s="38">
         <f t="shared" ref="P40" si="222">O40/O$47</f>
         <v>8.8599860335195527E-2</v>
       </c>
-      <c r="Q40" s="44">
+      <c r="Q40" s="34">
         <v>1422</v>
       </c>
-      <c r="R40" s="48">
+      <c r="R40" s="38">
         <f t="shared" ref="R40" si="223">Q40/Q$47</f>
         <v>2.3706321685782874E-2</v>
       </c>
-      <c r="S40" s="44">
+      <c r="S40" s="34">
         <v>982</v>
       </c>
-      <c r="T40" s="48">
+      <c r="T40" s="38">
         <f t="shared" ref="T40" si="224">S40/S$47</f>
         <v>0.1424013921113689</v>
       </c>
-      <c r="U40" s="44"/>
-      <c r="V40" s="48">
+      <c r="U40" s="34"/>
+      <c r="V40" s="38">
         <f t="shared" ref="V40" si="225">U40/U$47</f>
         <v>0</v>
       </c>
       <c r="W40">
         <v>1716</v>
       </c>
-      <c r="X40" s="48">
+      <c r="X40" s="38">
         <f t="shared" ref="X40" si="226">W40/W$47</f>
         <v>8.7963912241131842E-2</v>
       </c>
@@ -8380,73 +8380,73 @@
       <c r="A41" t="s">
         <v>320</v>
       </c>
-      <c r="B41" s="42">
+      <c r="B41" s="32">
         <f t="shared" si="0"/>
         <v>1.297434069680518E-2</v>
       </c>
-      <c r="C41" s="44">
+      <c r="C41" s="34">
         <v>23</v>
       </c>
-      <c r="D41" s="48">
+      <c r="D41" s="38">
         <f t="shared" si="1"/>
         <v>4.8533445874657096E-3</v>
       </c>
-      <c r="F41" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="48">
+      <c r="F41" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="38">
         <f t="shared" ref="H41" si="227">G41/G$47</f>
         <v>0</v>
       </c>
-      <c r="I41" s="44">
+      <c r="I41" s="34">
         <v>520</v>
       </c>
-      <c r="J41" s="48">
+      <c r="J41" s="38">
         <f t="shared" ref="J41" si="228">I41/I$47</f>
         <v>4.4455843378644097E-2</v>
       </c>
-      <c r="K41" s="44">
+      <c r="K41" s="34">
         <v>14</v>
       </c>
-      <c r="L41" s="48">
+      <c r="L41" s="38">
         <f t="shared" ref="L41" si="229">K41/K$47</f>
         <v>1.6686531585220502E-2</v>
       </c>
-      <c r="M41" s="44">
+      <c r="M41" s="34">
         <v>83</v>
       </c>
-      <c r="N41" s="48">
+      <c r="N41" s="38">
         <f t="shared" ref="N41" si="230">M41/M$47</f>
         <v>7.2552447552447552E-2</v>
       </c>
-      <c r="O41" s="44">
+      <c r="O41" s="34">
         <f>17</f>
         <v>17</v>
       </c>
-      <c r="P41" s="48">
+      <c r="P41" s="38">
         <f t="shared" ref="P41" si="231">O41/O$47</f>
         <v>1.4839385474860335E-3</v>
       </c>
-      <c r="Q41" s="44">
+      <c r="Q41" s="34">
         <v>75</v>
       </c>
-      <c r="R41" s="48">
+      <c r="R41" s="38">
         <f t="shared" ref="R41" si="232">Q41/Q$47</f>
         <v>1.2503334222459322E-3</v>
       </c>
-      <c r="T41" s="48">
+      <c r="T41" s="38">
         <f t="shared" ref="T41" si="233">S41/S$47</f>
         <v>0</v>
       </c>
-      <c r="V41" s="48">
+      <c r="V41" s="38">
         <f t="shared" ref="V41" si="234">U41/U$47</f>
         <v>0</v>
       </c>
       <c r="W41">
         <v>28</v>
       </c>
-      <c r="X41" s="48">
+      <c r="X41" s="38">
         <f t="shared" ref="X41" si="235">W41/W$47</f>
         <v>1.4353085913471396E-3</v>
       </c>
@@ -8455,55 +8455,55 @@
       <c r="A42" t="s">
         <v>321</v>
       </c>
-      <c r="B42" s="42">
+      <c r="B42" s="32">
         <f t="shared" si="0"/>
         <v>7.8537099227444385E-3</v>
       </c>
-      <c r="C42" s="44">
-        <v>0</v>
-      </c>
-      <c r="D42" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="48">
+      <c r="C42" s="34">
+        <v>0</v>
+      </c>
+      <c r="D42" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="38">
         <f t="shared" ref="H42" si="236">G42/G$47</f>
         <v>0</v>
       </c>
-      <c r="I42" s="44">
+      <c r="I42" s="34">
         <v>364</v>
       </c>
-      <c r="J42" s="48">
+      <c r="J42" s="38">
         <f t="shared" ref="J42" si="237">I42/I$47</f>
         <v>3.1119090365050867E-2</v>
       </c>
-      <c r="L42" s="48">
+      <c r="L42" s="38">
         <f t="shared" ref="L42" si="238">K42/K$47</f>
         <v>0</v>
       </c>
-      <c r="N42" s="48">
+      <c r="N42" s="38">
         <f t="shared" ref="N42" si="239">M42/M$47</f>
         <v>0</v>
       </c>
-      <c r="O42" s="44">
+      <c r="O42" s="34">
         <v>71</v>
       </c>
-      <c r="P42" s="48">
+      <c r="P42" s="38">
         <f t="shared" ref="P42" si="240">O42/O$47</f>
         <v>6.1976256983240227E-3</v>
       </c>
-      <c r="Q42" s="44">
+      <c r="Q42" s="34">
         <v>493</v>
       </c>
-      <c r="R42" s="48">
+      <c r="R42" s="38">
         <f t="shared" ref="R42" si="241">Q42/Q$47</f>
         <v>8.2188583622299274E-3</v>
       </c>
-      <c r="T42" s="48">
+      <c r="T42" s="38">
         <f t="shared" ref="T42" si="242">S42/S$47</f>
         <v>0</v>
       </c>
@@ -8511,14 +8511,14 @@
         <f>60+2</f>
         <v>62</v>
       </c>
-      <c r="V42" s="48">
+      <c r="V42" s="38">
         <f t="shared" ref="V42" si="243">U42/U$47</f>
         <v>4.0496407576747225E-2</v>
       </c>
       <c r="W42">
         <v>7</v>
       </c>
-      <c r="X42" s="48">
+      <c r="X42" s="38">
         <f t="shared" ref="X42" si="244">W42/W$47</f>
         <v>3.588271478367849E-4</v>
       </c>
@@ -8527,66 +8527,66 @@
       <c r="A43" t="s">
         <v>322</v>
       </c>
-      <c r="B43" s="42">
+      <c r="B43" s="32">
         <f t="shared" si="0"/>
         <v>6.9901392435737315E-5</v>
       </c>
-      <c r="C43" s="44">
-        <v>0</v>
-      </c>
-      <c r="D43" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="48">
+      <c r="C43" s="34">
+        <v>0</v>
+      </c>
+      <c r="D43" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="38">
         <f t="shared" ref="H43" si="245">G43/G$47</f>
         <v>0</v>
       </c>
-      <c r="I43" s="44">
-        <v>0</v>
-      </c>
-      <c r="J43" s="48">
+      <c r="I43" s="34">
+        <v>0</v>
+      </c>
+      <c r="J43" s="38">
         <f t="shared" ref="J43" si="246">I43/I$47</f>
         <v>0</v>
       </c>
-      <c r="L43" s="48">
+      <c r="L43" s="38">
         <f t="shared" ref="L43" si="247">K43/K$47</f>
         <v>0</v>
       </c>
-      <c r="M43" s="44">
-        <v>0</v>
-      </c>
-      <c r="N43" s="48">
+      <c r="M43" s="34">
+        <v>0</v>
+      </c>
+      <c r="N43" s="38">
         <f t="shared" ref="N43" si="248">M43/M$47</f>
         <v>0</v>
       </c>
-      <c r="O43" s="44">
-        <v>0</v>
-      </c>
-      <c r="P43" s="48">
+      <c r="O43" s="34">
+        <v>0</v>
+      </c>
+      <c r="P43" s="38">
         <f t="shared" ref="P43" si="249">O43/O$47</f>
         <v>0</v>
       </c>
-      <c r="R43" s="48">
+      <c r="R43" s="38">
         <f t="shared" ref="R43" si="250">Q43/Q$47</f>
         <v>0</v>
       </c>
-      <c r="T43" s="48">
+      <c r="T43" s="38">
         <f t="shared" ref="T43" si="251">S43/S$47</f>
         <v>0</v>
       </c>
-      <c r="V43" s="48">
+      <c r="V43" s="38">
         <f t="shared" ref="V43" si="252">U43/U$47</f>
         <v>0</v>
       </c>
       <c r="W43">
         <v>15</v>
       </c>
-      <c r="X43" s="48">
+      <c r="X43" s="38">
         <f t="shared" ref="X43" si="253">W43/W$47</f>
         <v>7.6891531679311052E-4</v>
       </c>
@@ -8595,72 +8595,72 @@
       <c r="A44" t="s">
         <v>323</v>
       </c>
-      <c r="B44" s="42">
+      <c r="B44" s="32">
         <f t="shared" si="0"/>
         <v>1.5879721609041732E-3</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C44" s="34">
         <v>12</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="38">
         <f t="shared" si="1"/>
         <v>2.5321797847647183E-3</v>
       </c>
-      <c r="E44" s="44">
+      <c r="E44" s="34">
         <v>4915</v>
       </c>
-      <c r="F44" s="48">
+      <c r="F44" s="38">
         <f t="shared" si="1"/>
         <v>2.2320921720096094E-3</v>
       </c>
-      <c r="H44" s="48">
+      <c r="H44" s="38">
         <f t="shared" ref="H44" si="254">G44/G$47</f>
         <v>0</v>
       </c>
-      <c r="I44" s="44">
+      <c r="I44" s="34">
         <v>20</v>
       </c>
-      <c r="J44" s="48">
+      <c r="J44" s="38">
         <f t="shared" ref="J44" si="255">I44/I$47</f>
         <v>1.7098401299478498E-3</v>
       </c>
-      <c r="L44" s="48">
+      <c r="L44" s="38">
         <f t="shared" ref="L44" si="256">K44/K$47</f>
         <v>0</v>
       </c>
-      <c r="M44" s="44">
+      <c r="M44" s="34">
         <v>6</v>
       </c>
-      <c r="N44" s="48">
+      <c r="N44" s="38">
         <f t="shared" ref="N44" si="257">M44/M$47</f>
         <v>5.244755244755245E-3</v>
       </c>
-      <c r="O44" s="44">
-        <v>0</v>
-      </c>
-      <c r="P44" s="48">
+      <c r="O44" s="34">
+        <v>0</v>
+      </c>
+      <c r="P44" s="38">
         <f t="shared" ref="P44" si="258">O44/O$47</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="44">
+      <c r="Q44" s="34">
         <v>105</v>
       </c>
-      <c r="R44" s="48">
+      <c r="R44" s="38">
         <f t="shared" ref="R44" si="259">Q44/Q$47</f>
         <v>1.7504667911443052E-3</v>
       </c>
-      <c r="T44" s="48">
+      <c r="T44" s="38">
         <f t="shared" ref="T44" si="260">S44/S$47</f>
         <v>0</v>
       </c>
-      <c r="V44" s="48">
+      <c r="V44" s="38">
         <f t="shared" ref="V44" si="261">U44/U$47</f>
         <v>0</v>
       </c>
       <c r="W44">
         <v>78</v>
       </c>
-      <c r="X44" s="48">
+      <c r="X44" s="38">
         <f t="shared" ref="X44" si="262">W44/W$47</f>
         <v>3.9983596473241751E-3</v>
       </c>
@@ -8669,60 +8669,60 @@
       <c r="A45" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="42">
+      <c r="B45" s="32">
         <f t="shared" si="0"/>
         <v>3.72889156932453E-2</v>
       </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="44"/>
-      <c r="F45" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="48">
+      <c r="C45" s="34"/>
+      <c r="D45" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="34"/>
+      <c r="F45" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="38">
         <f t="shared" ref="H45" si="263">G45/G$47</f>
         <v>0</v>
       </c>
-      <c r="I45" s="44"/>
-      <c r="J45" s="48">
+      <c r="I45" s="34"/>
+      <c r="J45" s="38">
         <f t="shared" ref="J45" si="264">I45/I$47</f>
         <v>0</v>
       </c>
-      <c r="L45" s="48">
+      <c r="L45" s="38">
         <f t="shared" ref="L45" si="265">K45/K$47</f>
         <v>0</v>
       </c>
-      <c r="M45" s="44"/>
-      <c r="N45" s="48">
+      <c r="M45" s="34"/>
+      <c r="N45" s="38">
         <f t="shared" ref="N45" si="266">M45/M$47</f>
         <v>0</v>
       </c>
-      <c r="O45" s="44">
+      <c r="O45" s="34">
         <f>4676+23</f>
         <v>4699</v>
       </c>
-      <c r="P45" s="48">
+      <c r="P45" s="38">
         <f t="shared" ref="P45" si="267">O45/O$47</f>
         <v>0.41017807262569833</v>
       </c>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="48">
+      <c r="Q45" s="34"/>
+      <c r="R45" s="38">
         <f t="shared" ref="R45" si="268">Q45/Q$47</f>
         <v>0</v>
       </c>
-      <c r="T45" s="48">
+      <c r="T45" s="38">
         <f t="shared" ref="T45" si="269">S45/S$47</f>
         <v>0</v>
       </c>
-      <c r="V45" s="48">
+      <c r="V45" s="38">
         <f t="shared" ref="V45" si="270">U45/U$47</f>
         <v>0</v>
       </c>
-      <c r="X45" s="48">
+      <c r="X45" s="38">
         <f t="shared" ref="X45" si="271">W45/W$47</f>
         <v>0</v>
       </c>
@@ -8731,60 +8731,60 @@
       <c r="A46" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="42">
+      <c r="B46" s="32">
         <f t="shared" si="0"/>
         <v>1.5169574168382273E-3</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="48">
+      <c r="C46" s="34"/>
+      <c r="D46" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="34"/>
+      <c r="F46" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="38">
         <f t="shared" ref="H46" si="272">G46/G$47</f>
         <v>0</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="48">
+      <c r="I46" s="34"/>
+      <c r="J46" s="38">
         <f t="shared" ref="J46" si="273">I46/I$47</f>
         <v>0</v>
       </c>
       <c r="K46">
         <v>14</v>
       </c>
-      <c r="L46" s="48">
+      <c r="L46" s="38">
         <f t="shared" ref="L46" si="274">K46/K$47</f>
         <v>1.6686531585220502E-2</v>
       </c>
-      <c r="M46" s="44"/>
-      <c r="N46" s="48">
+      <c r="M46" s="34"/>
+      <c r="N46" s="38">
         <f t="shared" ref="N46" si="275">M46/M$47</f>
         <v>0</v>
       </c>
-      <c r="O46" s="44"/>
-      <c r="P46" s="48">
+      <c r="O46" s="34"/>
+      <c r="P46" s="38">
         <f t="shared" ref="P46" si="276">O46/O$47</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="48">
+      <c r="Q46" s="34"/>
+      <c r="R46" s="38">
         <f t="shared" ref="R46" si="277">Q46/Q$47</f>
         <v>0</v>
       </c>
-      <c r="T46" s="48">
+      <c r="T46" s="38">
         <f t="shared" ref="T46" si="278">S46/S$47</f>
         <v>0</v>
       </c>
-      <c r="V46" s="48">
+      <c r="V46" s="38">
         <f t="shared" ref="V46" si="279">U46/U$47</f>
         <v>0</v>
       </c>
-      <c r="X46" s="48">
+      <c r="X46" s="38">
         <f t="shared" ref="X46" si="280">W46/W$47</f>
         <v>0</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>19508</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="318.75">
+    <row r="49" spans="1:19" ht="76.5">
       <c r="A49" t="s">
         <v>325</v>
       </c>
@@ -8852,7 +8852,7 @@
       <c r="E49" t="s">
         <v>327</v>
       </c>
-      <c r="G49" s="47" t="s">
+      <c r="G49" s="37" t="s">
         <v>328</v>
       </c>
       <c r="Q49" t="s">
@@ -8896,7 +8896,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="409.5">
+    <row r="52" spans="1:19" ht="102">
       <c r="A52" t="s">
         <v>341</v>
       </c>
@@ -8909,7 +8909,7 @@
       <c r="I52" t="s">
         <v>344</v>
       </c>
-      <c r="O52" s="47" t="s">
+      <c r="O52" s="37" t="s">
         <v>345</v>
       </c>
       <c r="Q52" t="s">
@@ -8923,7 +8923,7 @@
       <c r="C53" t="s">
         <v>348</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="E53" s="33" t="s">
         <v>349</v>
       </c>
       <c r="I53" t="s">
@@ -9023,7 +9023,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="44" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -9036,11 +9036,11 @@
         <f t="shared" si="0"/>
         <v>0.1328</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="48">
         <f>SUM(C3:C5)</f>
         <v>2656</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="46">
         <f>SUM(D3:D5)</f>
         <v>0.2656</v>
       </c>
@@ -9048,7 +9048,7 @@
         <f t="shared" ref="H3:H35" si="1">D3*100</f>
         <v>13.28</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="47">
         <f>F3*100</f>
         <v>26.56</v>
       </c>
@@ -9057,7 +9057,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="32"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="13" t="s">
         <v>88</v>
       </c>
@@ -9068,13 +9068,13 @@
         <f t="shared" si="0"/>
         <v>7.7600000000000002E-2</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="H4" s="30">
         <f t="shared" si="1"/>
         <v>7.76</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="47">
         <f>F4^(1/3)*100</f>
         <v>0</v>
       </c>
@@ -9083,7 +9083,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="32"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="13" t="s">
         <v>89</v>
       </c>
@@ -9094,13 +9094,13 @@
         <f t="shared" si="0"/>
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="H5" s="30">
         <f t="shared" si="1"/>
         <v>5.52</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="47">
         <f>F5^(1/3)*100</f>
         <v>0</v>
       </c>
@@ -9109,7 +9109,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="44" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -9122,11 +9122,11 @@
         <f t="shared" si="0"/>
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="48">
         <f>SUM(C6:C8)</f>
         <v>434</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="46">
         <f>SUM(D6:D8)</f>
         <v>4.3400000000000001E-2</v>
       </c>
@@ -9134,7 +9134,7 @@
         <f t="shared" si="1"/>
         <v>0.79</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="47">
         <f>F6*100</f>
         <v>4.34</v>
       </c>
@@ -9143,7 +9143,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="32"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="13" t="s">
         <v>92</v>
       </c>
@@ -9154,22 +9154,22 @@
         <f t="shared" si="0"/>
         <v>1.38E-2</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="48">
         <f>SUM(C7:C9)</f>
         <v>408</v>
       </c>
-      <c r="F7" s="34"/>
+      <c r="F7" s="46"/>
       <c r="H7" s="30">
         <f t="shared" si="1"/>
         <v>1.38</v>
       </c>
-      <c r="I7" s="35"/>
+      <c r="I7" s="47"/>
       <c r="K7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="32"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="13" t="s">
         <v>93</v>
       </c>
@@ -9180,22 +9180,22 @@
         <f t="shared" si="0"/>
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="48">
         <f>SUM(C8:C10)</f>
         <v>3184</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="46"/>
       <c r="H8" s="30">
         <f t="shared" si="1"/>
         <v>2.17</v>
       </c>
-      <c r="I8" s="35"/>
+      <c r="I8" s="47"/>
       <c r="K8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="45" t="s">
         <v>94</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -9208,11 +9208,11 @@
         <f t="shared" si="0"/>
         <v>5.3E-3</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="45">
         <f>SUM(C9:C10)</f>
         <v>2967</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="46">
         <f>SUM(D9:D10)</f>
         <v>0.29670000000000002</v>
       </c>
@@ -9220,7 +9220,7 @@
         <f t="shared" si="1"/>
         <v>0.53</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="47">
         <f>F9*100</f>
         <v>29.67</v>
       </c>
@@ -9229,7 +9229,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="33"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="14" t="s">
         <v>94</v>
       </c>
@@ -9240,19 +9240,19 @@
         <f t="shared" si="0"/>
         <v>0.29139999999999999</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
       <c r="H10" s="30">
         <f t="shared" si="1"/>
         <v>29.14</v>
       </c>
-      <c r="I10" s="35"/>
+      <c r="I10" s="47"/>
       <c r="K10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="45" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -9265,11 +9265,11 @@
         <f t="shared" si="0"/>
         <v>0.2407</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="45">
         <f>SUM(C11:C15)</f>
         <v>3265</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="46">
         <f>SUM(D11:D15)</f>
         <v>0.32650000000000001</v>
       </c>
@@ -9277,7 +9277,7 @@
         <f t="shared" si="1"/>
         <v>24.07</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="47">
         <f>F11*100</f>
         <v>32.65</v>
       </c>
@@ -9286,7 +9286,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="33"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="13" t="s">
         <v>98</v>
       </c>
@@ -9297,19 +9297,19 @@
         <f t="shared" si="0"/>
         <v>1.01E-2</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
       <c r="H12" s="30">
         <f t="shared" si="1"/>
         <v>1.01</v>
       </c>
-      <c r="I12" s="35"/>
+      <c r="I12" s="47"/>
       <c r="K12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="33"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="13" t="s">
         <v>99</v>
       </c>
@@ -9320,19 +9320,19 @@
         <f t="shared" si="0"/>
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
       <c r="H13" s="30">
         <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
-      <c r="I13" s="35"/>
+      <c r="I13" s="47"/>
       <c r="K13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="33"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="13" t="s">
         <v>100</v>
       </c>
@@ -9343,19 +9343,19 @@
         <f t="shared" si="0"/>
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
       <c r="H14" s="30">
         <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
-      <c r="I14" s="35"/>
+      <c r="I14" s="47"/>
       <c r="K14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="33"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="13" t="s">
         <v>101</v>
       </c>
@@ -9366,13 +9366,13 @@
         <f t="shared" si="0"/>
         <v>6.2E-2</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
       <c r="H15" s="30">
         <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
-      <c r="I15" s="35"/>
+      <c r="I15" s="47"/>
       <c r="K15" t="s">
         <v>10</v>
       </c>
@@ -9510,7 +9510,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="45" t="s">
         <v>106</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -9522,17 +9522,17 @@
       <c r="D20" s="15">
         <v>0.19</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="49" t="s">
         <v>110</v>
       </c>
       <c r="H20" s="30">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="47">
         <f>((0.35*2+0.16)/3)*100</f>
         <v>28.666666666666668</v>
       </c>
@@ -9541,7 +9541,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="33"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="13" t="s">
         <v>111</v>
       </c>
@@ -9551,19 +9551,19 @@
       <c r="D21" s="15">
         <v>0.06</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
       <c r="H21" s="30">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I21" s="35"/>
+      <c r="I21" s="47"/>
       <c r="K21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="33"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="13" t="s">
         <v>113</v>
       </c>
@@ -9573,19 +9573,19 @@
       <c r="D22" s="15">
         <v>0.02</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
       <c r="H22" s="30">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I22" s="35"/>
+      <c r="I22" s="47"/>
       <c r="K22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="33"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="13" t="s">
         <v>115</v>
       </c>
@@ -9595,19 +9595,19 @@
       <c r="D23" s="15">
         <v>0.02</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
       <c r="H23" s="30">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I23" s="35"/>
+      <c r="I23" s="47"/>
       <c r="K23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="45" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -9620,11 +9620,11 @@
         <f t="shared" ref="D24:D35" si="2">C24/10000</f>
         <v>0.1211</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="45">
         <f>SUM(C24:C25)</f>
         <v>2905</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="46">
         <f>SUM(D24:D25)</f>
         <v>0.29049999999999998</v>
       </c>
@@ -9632,7 +9632,7 @@
         <f t="shared" si="1"/>
         <v>12.11</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="50">
         <f>F24*100</f>
         <v>29.049999999999997</v>
       </c>
@@ -9641,7 +9641,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="33"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="14" t="s">
         <v>116</v>
       </c>
@@ -9652,13 +9652,13 @@
         <f t="shared" si="2"/>
         <v>0.1694</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
       <c r="H25" s="30">
         <f t="shared" si="1"/>
         <v>16.939999999999998</v>
       </c>
-      <c r="I25" s="38"/>
+      <c r="I25" s="50"/>
       <c r="K25" t="s">
         <v>10</v>
       </c>
@@ -9763,7 +9763,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="44" t="s">
         <v>121</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -9776,17 +9776,17 @@
         <f t="shared" si="2"/>
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="46">
         <v>0.17</v>
       </c>
       <c r="H29" s="30">
         <f t="shared" si="1"/>
         <v>5.9499999999999993</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I29" s="47">
         <f>F29*100</f>
         <v>17</v>
       </c>
@@ -9795,7 +9795,7 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="32"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="13" t="s">
         <v>124</v>
       </c>
@@ -9806,19 +9806,19 @@
         <f t="shared" si="2"/>
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
       <c r="H30" s="30">
         <f t="shared" si="1"/>
         <v>0.57000000000000006</v>
       </c>
-      <c r="I30" s="35"/>
+      <c r="I30" s="47"/>
       <c r="K30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="32"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="13" t="s">
         <v>125</v>
       </c>
@@ -9829,19 +9829,19 @@
         <f t="shared" si="2"/>
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
       <c r="H31" s="30">
         <f t="shared" si="1"/>
         <v>3.06</v>
       </c>
-      <c r="I31" s="35"/>
+      <c r="I31" s="47"/>
       <c r="K31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="32"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="13" t="s">
         <v>126</v>
       </c>
@@ -9852,19 +9852,19 @@
         <f t="shared" si="2"/>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
       <c r="H32" s="30">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="I32" s="35"/>
+      <c r="I32" s="47"/>
       <c r="K32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -9877,11 +9877,11 @@
         <f t="shared" si="2"/>
         <v>7.4899999999999994E-2</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="48">
         <f>SUM(C33:C35)</f>
         <v>4285</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="46">
         <f>SUM(D33:D35)</f>
         <v>0.42849999999999999</v>
       </c>
@@ -9889,7 +9889,7 @@
         <f t="shared" si="1"/>
         <v>7.4899999999999993</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="47">
         <f>F33*100</f>
         <v>42.85</v>
       </c>
@@ -9898,7 +9898,7 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="32"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="14" t="s">
         <v>128</v>
       </c>
@@ -9909,19 +9909,19 @@
         <f t="shared" si="2"/>
         <v>0.2097</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
       <c r="H34" s="30">
         <f t="shared" si="1"/>
         <v>20.97</v>
       </c>
-      <c r="I34" s="35"/>
+      <c r="I34" s="47"/>
       <c r="K34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="32"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="14" t="s">
         <v>129</v>
       </c>
@@ -9932,13 +9932,13 @@
         <f t="shared" si="2"/>
         <v>0.1439</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
       <c r="H35" s="30">
         <f t="shared" si="1"/>
         <v>14.39</v>
       </c>
-      <c r="I35" s="35"/>
+      <c r="I35" s="47"/>
       <c r="K35" t="s">
         <v>10</v>
       </c>
@@ -10024,30 +10024,30 @@
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="L2" s="31" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="L2" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31" t="s">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31" t="s">
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="39" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="51" t="s">
         <v>32</v>
       </c>
     </row>
@@ -10115,7 +10115,7 @@
       <c r="W3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="39"/>
+      <c r="X3" s="51"/>
     </row>
     <row r="4" spans="1:24" ht="25.5">
       <c r="A4" s="14" t="s">
@@ -10816,15 +10816,15 @@
       <c r="B15" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40" t="s">
+      <c r="D15" s="52"/>
+      <c r="E15" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
       <c r="K15" s="4" t="s">
         <v>18</v>
       </c>
